--- a/LaYumbaVinos/TP Final/Solicitud de Cambio/Solicitud de Cambio - Agregar Metodos.xlsx
+++ b/LaYumbaVinos/TP Final/Solicitud de Cambio/Solicitud de Cambio - Agregar Metodos.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="27715"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pgsett/TFI/LaYumbaVinos/TP Final/Solicitud de Cambio/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="5970" windowHeight="6195"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460"/>
   </bookViews>
   <sheets>
     <sheet name="Formato PR-07" sheetId="1" r:id="rId1"/>
@@ -13,7 +18,15 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Formato PR-07'!$B$2:$AX$62</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Formato PR-07'!$2:$3</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="125725" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -116,9 +129,6 @@
     <t>Solicitud de cambio</t>
   </si>
   <si>
-    <t>Settino German</t>
-  </si>
-  <si>
     <t>Se adjunta documento de especificaciones</t>
   </si>
   <si>
@@ -144,6 +154,9 @@
   </si>
   <si>
     <t>Se requieren metodos para realizar la validaciones de los formularios</t>
+  </si>
+  <si>
+    <t>Settino Pablo</t>
   </si>
 </sst>
 </file>
@@ -216,10 +229,10 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -227,7 +240,7 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
@@ -238,151 +251,151 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -391,7 +404,7 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -399,10 +412,10 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -410,7 +423,7 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -418,12 +431,12 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -432,18 +445,18 @@
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -500,9 +513,42 @@
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -521,18 +567,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -588,27 +622,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3216,7 +3229,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="es-AR" sz="1100"/>
-            <a:t>2015</a:t>
+            <a:t>2016</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -3290,7 +3303,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6829425" y="876300"/>
+          <a:off x="8001000" y="860425"/>
           <a:ext cx="327654" cy="264560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3320,7 +3333,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="es-AR" sz="1100"/>
-            <a:t>23</a:t>
+            <a:t>20</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -3386,7 +3399,7 @@
       <xdr:row>6</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1089722" cy="264560"/>
+    <xdr:ext cx="948337" cy="264560"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="6" name="5 CuadroTexto"/>
@@ -3394,8 +3407,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="333375" y="1733550"/>
-          <a:ext cx="1089722" cy="264560"/>
+          <a:off x="381000" y="1708150"/>
+          <a:ext cx="948337" cy="264560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3424,7 +3437,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="es-AR" sz="1100"/>
-            <a:t>Settino German</a:t>
+            <a:t>Settino Pablo</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -3446,7 +3459,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2876550" y="1714500"/>
+          <a:off x="3352800" y="1689100"/>
           <a:ext cx="1001877" cy="264560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3476,7 +3489,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="es-AR" sz="1100"/>
-            <a:t>DNI 33633265</a:t>
+            <a:t>DNI 33633264</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -3550,7 +3563,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5848350" y="1676400"/>
+          <a:off x="6858000" y="1651000"/>
           <a:ext cx="899605" cy="264560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3580,7 +3593,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="es-AR" sz="1100"/>
-            <a:t>1556631551</a:t>
+            <a:t>1558018495</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -3681,7 +3694,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="es-AR" sz="1100"/>
-            <a:t>Sistema Farmacia</a:t>
+            <a:t>Sistema La Yumba VInos</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -4139,28 +4152,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Hoja1"/>
+  <sheetPr codeName="Hoja1" enableFormatConditionsCalculation="0"/>
   <dimension ref="B1:BD170"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30:AX30"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31:AX31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" customWidth="1"/>
-    <col min="2" max="2" width="2.28515625" customWidth="1"/>
-    <col min="3" max="28" width="2.42578125" customWidth="1"/>
-    <col min="29" max="29" width="2.5703125" customWidth="1"/>
-    <col min="30" max="39" width="2.42578125" customWidth="1"/>
-    <col min="40" max="49" width="2.28515625" customWidth="1"/>
-    <col min="50" max="50" width="1.5703125" customWidth="1"/>
-    <col min="51" max="51" width="2.28515625" customWidth="1"/>
-    <col min="52" max="79" width="2.42578125" customWidth="1"/>
-    <col min="80" max="84" width="2.7109375" customWidth="1"/>
+    <col min="1" max="1" width="2.6640625" customWidth="1"/>
+    <col min="2" max="2" width="2.33203125" customWidth="1"/>
+    <col min="3" max="39" width="2.5" customWidth="1"/>
+    <col min="40" max="49" width="2.33203125" customWidth="1"/>
+    <col min="50" max="50" width="1.5" customWidth="1"/>
+    <col min="51" max="51" width="2.33203125" customWidth="1"/>
+    <col min="52" max="79" width="2.5" customWidth="1"/>
+    <col min="80" max="84" width="2.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:56" ht="61.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:56" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="P1" s="20" t="s">
         <v>31</v>
       </c>
@@ -4173,129 +4184,129 @@
       <c r="W1" s="20"/>
       <c r="X1" s="20"/>
     </row>
-    <row r="2" spans="2:56" ht="6.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="2:56" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:56" ht="6.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="3" spans="2:56" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="P3" s="2"/>
-      <c r="U3" s="52"/>
-      <c r="V3" s="53"/>
-      <c r="W3" s="53"/>
-      <c r="X3" s="53"/>
-      <c r="Y3" s="53"/>
-      <c r="AK3" s="54"/>
-      <c r="AL3" s="54"/>
-      <c r="AM3" s="54"/>
-      <c r="AN3" s="54"/>
-      <c r="AO3" s="54"/>
+      <c r="U3" s="29"/>
+      <c r="V3" s="30"/>
+      <c r="W3" s="30"/>
+      <c r="X3" s="30"/>
+      <c r="Y3" s="30"/>
+      <c r="AK3" s="31"/>
+      <c r="AL3" s="31"/>
+      <c r="AM3" s="31"/>
+      <c r="AN3" s="31"/>
+      <c r="AO3" s="31"/>
     </row>
-    <row r="4" spans="2:56" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="58" t="s">
+    <row r="4" spans="2:56" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B4" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="59"/>
-      <c r="D4" s="59"/>
-      <c r="E4" s="59"/>
-      <c r="F4" s="59"/>
-      <c r="G4" s="59"/>
-      <c r="H4" s="59"/>
-      <c r="I4" s="59"/>
-      <c r="J4" s="59"/>
-      <c r="K4" s="59"/>
-      <c r="L4" s="59"/>
-      <c r="M4" s="59"/>
-      <c r="N4" s="59"/>
-      <c r="O4" s="59"/>
-      <c r="P4" s="59"/>
-      <c r="Q4" s="59"/>
-      <c r="R4" s="59"/>
-      <c r="S4" s="59"/>
-      <c r="T4" s="59"/>
-      <c r="U4" s="59"/>
-      <c r="V4" s="59"/>
-      <c r="W4" s="59"/>
-      <c r="X4" s="59"/>
-      <c r="Y4" s="59"/>
-      <c r="Z4" s="59"/>
-      <c r="AA4" s="59"/>
-      <c r="AB4" s="59"/>
-      <c r="AC4" s="59"/>
-      <c r="AD4" s="59"/>
-      <c r="AE4" s="59"/>
-      <c r="AF4" s="59"/>
-      <c r="AG4" s="59"/>
-      <c r="AH4" s="59"/>
-      <c r="AI4" s="59"/>
-      <c r="AJ4" s="59"/>
-      <c r="AK4" s="59"/>
-      <c r="AL4" s="59"/>
-      <c r="AM4" s="59"/>
-      <c r="AN4" s="59"/>
-      <c r="AO4" s="59"/>
-      <c r="AP4" s="59"/>
-      <c r="AQ4" s="59"/>
-      <c r="AR4" s="59"/>
-      <c r="AS4" s="59"/>
-      <c r="AT4" s="59"/>
-      <c r="AU4" s="59"/>
-      <c r="AV4" s="59"/>
-      <c r="AW4" s="59"/>
-      <c r="AX4" s="59"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="35"/>
+      <c r="L4" s="35"/>
+      <c r="M4" s="35"/>
+      <c r="N4" s="35"/>
+      <c r="O4" s="35"/>
+      <c r="P4" s="35"/>
+      <c r="Q4" s="35"/>
+      <c r="R4" s="35"/>
+      <c r="S4" s="35"/>
+      <c r="T4" s="35"/>
+      <c r="U4" s="35"/>
+      <c r="V4" s="35"/>
+      <c r="W4" s="35"/>
+      <c r="X4" s="35"/>
+      <c r="Y4" s="35"/>
+      <c r="Z4" s="35"/>
+      <c r="AA4" s="35"/>
+      <c r="AB4" s="35"/>
+      <c r="AC4" s="35"/>
+      <c r="AD4" s="35"/>
+      <c r="AE4" s="35"/>
+      <c r="AF4" s="35"/>
+      <c r="AG4" s="35"/>
+      <c r="AH4" s="35"/>
+      <c r="AI4" s="35"/>
+      <c r="AJ4" s="35"/>
+      <c r="AK4" s="35"/>
+      <c r="AL4" s="35"/>
+      <c r="AM4" s="35"/>
+      <c r="AN4" s="35"/>
+      <c r="AO4" s="35"/>
+      <c r="AP4" s="35"/>
+      <c r="AQ4" s="35"/>
+      <c r="AR4" s="35"/>
+      <c r="AS4" s="35"/>
+      <c r="AT4" s="35"/>
+      <c r="AU4" s="35"/>
+      <c r="AV4" s="35"/>
+      <c r="AW4" s="35"/>
+      <c r="AX4" s="35"/>
       <c r="BA4" s="1"/>
       <c r="BB4" s="1"/>
       <c r="BC4" s="1"/>
       <c r="BD4" s="1"/>
     </row>
-    <row r="5" spans="2:56" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="59"/>
-      <c r="C5" s="59"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="59"/>
-      <c r="F5" s="59"/>
-      <c r="G5" s="59"/>
-      <c r="H5" s="59"/>
-      <c r="I5" s="59"/>
-      <c r="J5" s="59"/>
-      <c r="K5" s="59"/>
-      <c r="L5" s="59"/>
-      <c r="M5" s="59"/>
-      <c r="N5" s="59"/>
-      <c r="O5" s="59"/>
-      <c r="P5" s="59"/>
-      <c r="Q5" s="59"/>
-      <c r="R5" s="59"/>
-      <c r="S5" s="59"/>
-      <c r="T5" s="59"/>
-      <c r="U5" s="59"/>
-      <c r="V5" s="59"/>
-      <c r="W5" s="59"/>
-      <c r="X5" s="59"/>
-      <c r="Y5" s="59"/>
-      <c r="Z5" s="59"/>
-      <c r="AA5" s="59"/>
-      <c r="AB5" s="59"/>
-      <c r="AC5" s="59"/>
-      <c r="AD5" s="59"/>
-      <c r="AE5" s="59"/>
-      <c r="AF5" s="59"/>
-      <c r="AG5" s="59"/>
-      <c r="AH5" s="59"/>
-      <c r="AI5" s="59"/>
-      <c r="AJ5" s="59"/>
-      <c r="AK5" s="59"/>
-      <c r="AL5" s="59"/>
-      <c r="AM5" s="59"/>
-      <c r="AN5" s="59"/>
-      <c r="AO5" s="59"/>
-      <c r="AP5" s="59"/>
-      <c r="AQ5" s="59"/>
-      <c r="AR5" s="59"/>
-      <c r="AS5" s="59"/>
-      <c r="AT5" s="59"/>
-      <c r="AU5" s="59"/>
-      <c r="AV5" s="59"/>
-      <c r="AW5" s="59"/>
-      <c r="AX5" s="59"/>
+    <row r="5" spans="2:56" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B5" s="35"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="35"/>
+      <c r="K5" s="35"/>
+      <c r="L5" s="35"/>
+      <c r="M5" s="35"/>
+      <c r="N5" s="35"/>
+      <c r="O5" s="35"/>
+      <c r="P5" s="35"/>
+      <c r="Q5" s="35"/>
+      <c r="R5" s="35"/>
+      <c r="S5" s="35"/>
+      <c r="T5" s="35"/>
+      <c r="U5" s="35"/>
+      <c r="V5" s="35"/>
+      <c r="W5" s="35"/>
+      <c r="X5" s="35"/>
+      <c r="Y5" s="35"/>
+      <c r="Z5" s="35"/>
+      <c r="AA5" s="35"/>
+      <c r="AB5" s="35"/>
+      <c r="AC5" s="35"/>
+      <c r="AD5" s="35"/>
+      <c r="AE5" s="35"/>
+      <c r="AF5" s="35"/>
+      <c r="AG5" s="35"/>
+      <c r="AH5" s="35"/>
+      <c r="AI5" s="35"/>
+      <c r="AJ5" s="35"/>
+      <c r="AK5" s="35"/>
+      <c r="AL5" s="35"/>
+      <c r="AM5" s="35"/>
+      <c r="AN5" s="35"/>
+      <c r="AO5" s="35"/>
+      <c r="AP5" s="35"/>
+      <c r="AQ5" s="35"/>
+      <c r="AR5" s="35"/>
+      <c r="AS5" s="35"/>
+      <c r="AT5" s="35"/>
+      <c r="AU5" s="35"/>
+      <c r="AV5" s="35"/>
+      <c r="AW5" s="35"/>
+      <c r="AX5" s="35"/>
     </row>
-    <row r="6" spans="2:56" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:56" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C6" s="6" t="s">
         <v>0</v>
       </c>
@@ -4344,47 +4355,47 @@
       <c r="BC6" s="1"/>
       <c r="BD6" s="1"/>
     </row>
-    <row r="7" spans="2:56" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="55"/>
-      <c r="C7" s="55"/>
-      <c r="D7" s="55"/>
-      <c r="E7" s="55"/>
-      <c r="F7" s="55"/>
-      <c r="G7" s="55"/>
-      <c r="H7" s="55"/>
-      <c r="I7" s="55"/>
-      <c r="J7" s="55"/>
-      <c r="K7" s="55"/>
-      <c r="L7" s="55"/>
-      <c r="M7" s="55"/>
-      <c r="N7" s="55"/>
-      <c r="O7" s="55"/>
-      <c r="P7" s="55"/>
-      <c r="Q7" s="55"/>
-      <c r="R7" s="55"/>
-      <c r="S7" s="55"/>
-      <c r="T7" s="55"/>
-      <c r="U7" s="55"/>
-      <c r="V7" s="55"/>
-      <c r="W7" s="55"/>
-      <c r="X7" s="55"/>
-      <c r="Y7" s="55"/>
-      <c r="Z7" s="55"/>
-      <c r="AA7" s="55"/>
-      <c r="AB7" s="55"/>
-      <c r="AC7" s="55"/>
-      <c r="AD7" s="55"/>
-      <c r="AE7" s="55"/>
-      <c r="AF7" s="55"/>
-      <c r="AG7" s="55"/>
-      <c r="AH7" s="55"/>
-      <c r="AI7" s="55"/>
-      <c r="AJ7" s="55"/>
-      <c r="AK7" s="55"/>
-      <c r="AL7" s="55"/>
-      <c r="AM7" s="55"/>
-      <c r="AN7" s="55"/>
-      <c r="AO7" s="55"/>
+    <row r="7" spans="2:56" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B7" s="28"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="28"/>
+      <c r="K7" s="28"/>
+      <c r="L7" s="28"/>
+      <c r="M7" s="28"/>
+      <c r="N7" s="28"/>
+      <c r="O7" s="28"/>
+      <c r="P7" s="28"/>
+      <c r="Q7" s="28"/>
+      <c r="R7" s="28"/>
+      <c r="S7" s="28"/>
+      <c r="T7" s="28"/>
+      <c r="U7" s="28"/>
+      <c r="V7" s="28"/>
+      <c r="W7" s="28"/>
+      <c r="X7" s="28"/>
+      <c r="Y7" s="28"/>
+      <c r="Z7" s="28"/>
+      <c r="AA7" s="28"/>
+      <c r="AB7" s="28"/>
+      <c r="AC7" s="28"/>
+      <c r="AD7" s="28"/>
+      <c r="AE7" s="28"/>
+      <c r="AF7" s="28"/>
+      <c r="AG7" s="28"/>
+      <c r="AH7" s="28"/>
+      <c r="AI7" s="28"/>
+      <c r="AJ7" s="28"/>
+      <c r="AK7" s="28"/>
+      <c r="AL7" s="28"/>
+      <c r="AM7" s="28"/>
+      <c r="AN7" s="28"/>
+      <c r="AO7" s="28"/>
       <c r="AP7" s="1"/>
       <c r="AQ7" s="1"/>
       <c r="AR7" s="1"/>
@@ -4394,47 +4405,47 @@
       <c r="AV7" s="1"/>
       <c r="AW7" s="1"/>
     </row>
-    <row r="8" spans="2:56" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="55"/>
-      <c r="C8" s="55"/>
-      <c r="D8" s="55"/>
-      <c r="E8" s="55"/>
-      <c r="F8" s="55"/>
-      <c r="G8" s="55"/>
-      <c r="H8" s="55"/>
-      <c r="I8" s="55"/>
-      <c r="J8" s="55"/>
-      <c r="K8" s="55"/>
-      <c r="L8" s="55"/>
-      <c r="M8" s="55"/>
-      <c r="N8" s="55"/>
-      <c r="O8" s="55"/>
-      <c r="P8" s="55"/>
-      <c r="Q8" s="55"/>
-      <c r="R8" s="55"/>
-      <c r="S8" s="55"/>
-      <c r="T8" s="55"/>
-      <c r="U8" s="55"/>
-      <c r="V8" s="55"/>
-      <c r="W8" s="55"/>
-      <c r="X8" s="55"/>
-      <c r="Y8" s="55"/>
-      <c r="Z8" s="55"/>
-      <c r="AA8" s="55"/>
-      <c r="AB8" s="55"/>
-      <c r="AC8" s="55"/>
-      <c r="AD8" s="55"/>
-      <c r="AE8" s="55"/>
-      <c r="AF8" s="55"/>
-      <c r="AG8" s="55"/>
-      <c r="AH8" s="55"/>
-      <c r="AI8" s="55"/>
-      <c r="AJ8" s="55"/>
-      <c r="AK8" s="55"/>
-      <c r="AL8" s="55"/>
-      <c r="AM8" s="55"/>
-      <c r="AN8" s="55"/>
-      <c r="AO8" s="55"/>
+    <row r="8" spans="2:56" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="28"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="28"/>
+      <c r="L8" s="28"/>
+      <c r="M8" s="28"/>
+      <c r="N8" s="28"/>
+      <c r="O8" s="28"/>
+      <c r="P8" s="28"/>
+      <c r="Q8" s="28"/>
+      <c r="R8" s="28"/>
+      <c r="S8" s="28"/>
+      <c r="T8" s="28"/>
+      <c r="U8" s="28"/>
+      <c r="V8" s="28"/>
+      <c r="W8" s="28"/>
+      <c r="X8" s="28"/>
+      <c r="Y8" s="28"/>
+      <c r="Z8" s="28"/>
+      <c r="AA8" s="28"/>
+      <c r="AB8" s="28"/>
+      <c r="AC8" s="28"/>
+      <c r="AD8" s="28"/>
+      <c r="AE8" s="28"/>
+      <c r="AF8" s="28"/>
+      <c r="AG8" s="28"/>
+      <c r="AH8" s="28"/>
+      <c r="AI8" s="28"/>
+      <c r="AJ8" s="28"/>
+      <c r="AK8" s="28"/>
+      <c r="AL8" s="28"/>
+      <c r="AM8" s="28"/>
+      <c r="AN8" s="28"/>
+      <c r="AO8" s="28"/>
       <c r="AP8" s="1"/>
       <c r="AQ8" s="5"/>
       <c r="AR8" s="5"/>
@@ -4444,47 +4455,47 @@
       <c r="AV8" s="1"/>
       <c r="AW8" s="1"/>
     </row>
-    <row r="9" spans="2:56" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="55"/>
-      <c r="C9" s="55"/>
-      <c r="D9" s="55"/>
-      <c r="E9" s="55"/>
-      <c r="F9" s="55"/>
-      <c r="G9" s="55"/>
-      <c r="H9" s="55"/>
-      <c r="I9" s="55"/>
-      <c r="J9" s="55"/>
-      <c r="K9" s="55"/>
-      <c r="L9" s="55"/>
-      <c r="M9" s="55"/>
-      <c r="N9" s="55"/>
-      <c r="O9" s="55"/>
-      <c r="P9" s="55"/>
-      <c r="Q9" s="55"/>
-      <c r="R9" s="55"/>
-      <c r="S9" s="55"/>
-      <c r="T9" s="55"/>
-      <c r="U9" s="55"/>
-      <c r="V9" s="55"/>
-      <c r="W9" s="55"/>
-      <c r="X9" s="55"/>
-      <c r="Y9" s="55"/>
-      <c r="Z9" s="55"/>
-      <c r="AA9" s="55"/>
-      <c r="AB9" s="55"/>
-      <c r="AC9" s="55"/>
-      <c r="AD9" s="55"/>
-      <c r="AE9" s="55"/>
-      <c r="AF9" s="55"/>
-      <c r="AG9" s="55"/>
-      <c r="AH9" s="55"/>
-      <c r="AI9" s="55"/>
-      <c r="AJ9" s="55"/>
-      <c r="AK9" s="55"/>
-      <c r="AL9" s="55"/>
-      <c r="AM9" s="55"/>
-      <c r="AN9" s="55"/>
-      <c r="AO9" s="55"/>
+    <row r="9" spans="2:56" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="28"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="28"/>
+      <c r="J9" s="28"/>
+      <c r="K9" s="28"/>
+      <c r="L9" s="28"/>
+      <c r="M9" s="28"/>
+      <c r="N9" s="28"/>
+      <c r="O9" s="28"/>
+      <c r="P9" s="28"/>
+      <c r="Q9" s="28"/>
+      <c r="R9" s="28"/>
+      <c r="S9" s="28"/>
+      <c r="T9" s="28"/>
+      <c r="U9" s="28"/>
+      <c r="V9" s="28"/>
+      <c r="W9" s="28"/>
+      <c r="X9" s="28"/>
+      <c r="Y9" s="28"/>
+      <c r="Z9" s="28"/>
+      <c r="AA9" s="28"/>
+      <c r="AB9" s="28"/>
+      <c r="AC9" s="28"/>
+      <c r="AD9" s="28"/>
+      <c r="AE9" s="28"/>
+      <c r="AF9" s="28"/>
+      <c r="AG9" s="28"/>
+      <c r="AH9" s="28"/>
+      <c r="AI9" s="28"/>
+      <c r="AJ9" s="28"/>
+      <c r="AK9" s="28"/>
+      <c r="AL9" s="28"/>
+      <c r="AM9" s="28"/>
+      <c r="AN9" s="28"/>
+      <c r="AO9" s="28"/>
       <c r="AP9" s="1"/>
       <c r="AQ9" s="1"/>
       <c r="AR9" s="1"/>
@@ -4494,18 +4505,18 @@
       <c r="AV9" s="1"/>
       <c r="AW9" s="1"/>
     </row>
-    <row r="10" spans="2:56" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="56" t="s">
+    <row r="10" spans="2:56" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B10" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="56"/>
-      <c r="D10" s="56"/>
-      <c r="E10" s="56"/>
-      <c r="F10" s="56"/>
-      <c r="G10" s="56"/>
-      <c r="H10" s="56"/>
-      <c r="I10" s="56"/>
-      <c r="J10" s="56"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="32"/>
+      <c r="I10" s="32"/>
+      <c r="J10" s="32"/>
       <c r="K10" s="11"/>
       <c r="L10" s="11"/>
       <c r="M10" s="11"/>
@@ -4537,8 +4548,8 @@
       <c r="AN10" s="11"/>
       <c r="AO10" s="11"/>
     </row>
-    <row r="11" spans="2:56" ht="9" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="12" spans="2:56" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:56" ht="9" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="12" spans="2:56" x14ac:dyDescent="0.15">
       <c r="B12" s="2" t="s">
         <v>12</v>
       </c>
@@ -4555,15 +4566,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="2:56" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:56" x14ac:dyDescent="0.15">
       <c r="B13" s="2"/>
       <c r="H13" s="7"/>
       <c r="R13" s="7"/>
       <c r="AA13" s="7"/>
       <c r="AJ13" s="7"/>
     </row>
-    <row r="14" spans="2:56" ht="6.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="15" spans="2:56" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:56" ht="6.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="15" spans="2:56" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="19" t="s">
         <v>8</v>
       </c>
@@ -4571,58 +4582,58 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="2:56" ht="6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="57"/>
-      <c r="C16" s="57"/>
-      <c r="D16" s="57"/>
-      <c r="E16" s="57"/>
-      <c r="F16" s="57"/>
-      <c r="G16" s="57"/>
-      <c r="H16" s="57"/>
-      <c r="I16" s="57"/>
-      <c r="J16" s="57"/>
-      <c r="K16" s="57"/>
-      <c r="L16" s="57"/>
-      <c r="M16" s="57"/>
-      <c r="N16" s="57"/>
-      <c r="O16" s="57"/>
-      <c r="P16" s="57"/>
-      <c r="Q16" s="57"/>
-      <c r="R16" s="57"/>
-      <c r="S16" s="57"/>
-      <c r="T16" s="57"/>
-      <c r="U16" s="57"/>
-      <c r="V16" s="57"/>
-      <c r="W16" s="57"/>
-      <c r="X16" s="57"/>
-      <c r="Y16" s="57"/>
-      <c r="Z16" s="57"/>
-      <c r="AA16" s="57"/>
-      <c r="AB16" s="57"/>
-      <c r="AC16" s="57"/>
-      <c r="AD16" s="57"/>
-      <c r="AE16" s="57"/>
-      <c r="AF16" s="57"/>
-      <c r="AG16" s="57"/>
-      <c r="AH16" s="57"/>
-      <c r="AI16" s="57"/>
-      <c r="AJ16" s="57"/>
-      <c r="AK16" s="57"/>
-      <c r="AL16" s="57"/>
-      <c r="AM16" s="57"/>
-      <c r="AN16" s="57"/>
-      <c r="AO16" s="57"/>
-      <c r="AP16" s="57"/>
-      <c r="AQ16" s="57"/>
-      <c r="AR16" s="57"/>
-      <c r="AS16" s="57"/>
-      <c r="AT16" s="57"/>
-      <c r="AU16" s="57"/>
-      <c r="AV16" s="57"/>
-      <c r="AW16" s="57"/>
-      <c r="AX16" s="57"/>
+    <row r="16" spans="2:56" ht="6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B16" s="33"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="33"/>
+      <c r="H16" s="33"/>
+      <c r="I16" s="33"/>
+      <c r="J16" s="33"/>
+      <c r="K16" s="33"/>
+      <c r="L16" s="33"/>
+      <c r="M16" s="33"/>
+      <c r="N16" s="33"/>
+      <c r="O16" s="33"/>
+      <c r="P16" s="33"/>
+      <c r="Q16" s="33"/>
+      <c r="R16" s="33"/>
+      <c r="S16" s="33"/>
+      <c r="T16" s="33"/>
+      <c r="U16" s="33"/>
+      <c r="V16" s="33"/>
+      <c r="W16" s="33"/>
+      <c r="X16" s="33"/>
+      <c r="Y16" s="33"/>
+      <c r="Z16" s="33"/>
+      <c r="AA16" s="33"/>
+      <c r="AB16" s="33"/>
+      <c r="AC16" s="33"/>
+      <c r="AD16" s="33"/>
+      <c r="AE16" s="33"/>
+      <c r="AF16" s="33"/>
+      <c r="AG16" s="33"/>
+      <c r="AH16" s="33"/>
+      <c r="AI16" s="33"/>
+      <c r="AJ16" s="33"/>
+      <c r="AK16" s="33"/>
+      <c r="AL16" s="33"/>
+      <c r="AM16" s="33"/>
+      <c r="AN16" s="33"/>
+      <c r="AO16" s="33"/>
+      <c r="AP16" s="33"/>
+      <c r="AQ16" s="33"/>
+      <c r="AR16" s="33"/>
+      <c r="AS16" s="33"/>
+      <c r="AT16" s="33"/>
+      <c r="AU16" s="33"/>
+      <c r="AV16" s="33"/>
+      <c r="AW16" s="33"/>
+      <c r="AX16" s="33"/>
     </row>
-    <row r="17" spans="2:52" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:52" x14ac:dyDescent="0.15">
       <c r="B17" s="15" t="s">
         <v>13</v>
       </c>
@@ -4665,162 +4676,162 @@
       <c r="AM17" s="3"/>
       <c r="AN17" s="3"/>
     </row>
-    <row r="18" spans="2:52" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="24" t="s">
-        <v>40</v>
+    <row r="18" spans="2:52" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B18" s="27" t="s">
+        <v>39</v>
       </c>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="24"/>
-      <c r="H18" s="24"/>
-      <c r="I18" s="24"/>
-      <c r="J18" s="24"/>
-      <c r="K18" s="24"/>
-      <c r="L18" s="24"/>
-      <c r="M18" s="24"/>
-      <c r="N18" s="24"/>
-      <c r="O18" s="24"/>
-      <c r="P18" s="24"/>
-      <c r="Q18" s="24"/>
-      <c r="R18" s="24"/>
-      <c r="S18" s="24"/>
-      <c r="T18" s="24"/>
-      <c r="U18" s="24"/>
-      <c r="V18" s="24"/>
-      <c r="W18" s="24"/>
-      <c r="X18" s="24"/>
-      <c r="Y18" s="24"/>
-      <c r="Z18" s="24"/>
-      <c r="AA18" s="24"/>
-      <c r="AB18" s="24"/>
-      <c r="AC18" s="24"/>
-      <c r="AD18" s="24"/>
-      <c r="AE18" s="24"/>
-      <c r="AF18" s="24"/>
-      <c r="AG18" s="24"/>
-      <c r="AH18" s="24"/>
-      <c r="AI18" s="24"/>
-      <c r="AJ18" s="24"/>
-      <c r="AK18" s="24"/>
-      <c r="AL18" s="24"/>
-      <c r="AM18" s="24"/>
-      <c r="AN18" s="24"/>
-      <c r="AO18" s="24"/>
-      <c r="AP18" s="24"/>
-      <c r="AQ18" s="24"/>
-      <c r="AR18" s="24"/>
-      <c r="AS18" s="24"/>
-      <c r="AT18" s="24"/>
-      <c r="AU18" s="24"/>
-      <c r="AV18" s="24"/>
-      <c r="AW18" s="24"/>
-      <c r="AX18" s="24"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="27"/>
+      <c r="I18" s="27"/>
+      <c r="J18" s="27"/>
+      <c r="K18" s="27"/>
+      <c r="L18" s="27"/>
+      <c r="M18" s="27"/>
+      <c r="N18" s="27"/>
+      <c r="O18" s="27"/>
+      <c r="P18" s="27"/>
+      <c r="Q18" s="27"/>
+      <c r="R18" s="27"/>
+      <c r="S18" s="27"/>
+      <c r="T18" s="27"/>
+      <c r="U18" s="27"/>
+      <c r="V18" s="27"/>
+      <c r="W18" s="27"/>
+      <c r="X18" s="27"/>
+      <c r="Y18" s="27"/>
+      <c r="Z18" s="27"/>
+      <c r="AA18" s="27"/>
+      <c r="AB18" s="27"/>
+      <c r="AC18" s="27"/>
+      <c r="AD18" s="27"/>
+      <c r="AE18" s="27"/>
+      <c r="AF18" s="27"/>
+      <c r="AG18" s="27"/>
+      <c r="AH18" s="27"/>
+      <c r="AI18" s="27"/>
+      <c r="AJ18" s="27"/>
+      <c r="AK18" s="27"/>
+      <c r="AL18" s="27"/>
+      <c r="AM18" s="27"/>
+      <c r="AN18" s="27"/>
+      <c r="AO18" s="27"/>
+      <c r="AP18" s="27"/>
+      <c r="AQ18" s="27"/>
+      <c r="AR18" s="27"/>
+      <c r="AS18" s="27"/>
+      <c r="AT18" s="27"/>
+      <c r="AU18" s="27"/>
+      <c r="AV18" s="27"/>
+      <c r="AW18" s="27"/>
+      <c r="AX18" s="27"/>
     </row>
-    <row r="19" spans="2:52" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="24"/>
-      <c r="C19" s="24"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="24"/>
-      <c r="H19" s="24"/>
-      <c r="I19" s="24"/>
-      <c r="J19" s="24"/>
-      <c r="K19" s="24"/>
-      <c r="L19" s="24"/>
-      <c r="M19" s="24"/>
-      <c r="N19" s="24"/>
-      <c r="O19" s="24"/>
-      <c r="P19" s="24"/>
-      <c r="Q19" s="24"/>
-      <c r="R19" s="24"/>
-      <c r="S19" s="24"/>
-      <c r="T19" s="24"/>
-      <c r="U19" s="24"/>
-      <c r="V19" s="24"/>
-      <c r="W19" s="24"/>
-      <c r="X19" s="24"/>
-      <c r="Y19" s="24"/>
-      <c r="Z19" s="24"/>
-      <c r="AA19" s="24"/>
-      <c r="AB19" s="24"/>
-      <c r="AC19" s="24"/>
-      <c r="AD19" s="24"/>
-      <c r="AE19" s="24"/>
-      <c r="AF19" s="24"/>
-      <c r="AG19" s="24"/>
-      <c r="AH19" s="24"/>
-      <c r="AI19" s="24"/>
-      <c r="AJ19" s="24"/>
-      <c r="AK19" s="24"/>
-      <c r="AL19" s="24"/>
-      <c r="AM19" s="24"/>
-      <c r="AN19" s="24"/>
-      <c r="AO19" s="24"/>
-      <c r="AP19" s="24"/>
-      <c r="AQ19" s="24"/>
-      <c r="AR19" s="24"/>
-      <c r="AS19" s="24"/>
-      <c r="AT19" s="24"/>
-      <c r="AU19" s="24"/>
-      <c r="AV19" s="24"/>
-      <c r="AW19" s="24"/>
-      <c r="AX19" s="24"/>
+    <row r="19" spans="2:52" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B19" s="27"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="27"/>
+      <c r="I19" s="27"/>
+      <c r="J19" s="27"/>
+      <c r="K19" s="27"/>
+      <c r="L19" s="27"/>
+      <c r="M19" s="27"/>
+      <c r="N19" s="27"/>
+      <c r="O19" s="27"/>
+      <c r="P19" s="27"/>
+      <c r="Q19" s="27"/>
+      <c r="R19" s="27"/>
+      <c r="S19" s="27"/>
+      <c r="T19" s="27"/>
+      <c r="U19" s="27"/>
+      <c r="V19" s="27"/>
+      <c r="W19" s="27"/>
+      <c r="X19" s="27"/>
+      <c r="Y19" s="27"/>
+      <c r="Z19" s="27"/>
+      <c r="AA19" s="27"/>
+      <c r="AB19" s="27"/>
+      <c r="AC19" s="27"/>
+      <c r="AD19" s="27"/>
+      <c r="AE19" s="27"/>
+      <c r="AF19" s="27"/>
+      <c r="AG19" s="27"/>
+      <c r="AH19" s="27"/>
+      <c r="AI19" s="27"/>
+      <c r="AJ19" s="27"/>
+      <c r="AK19" s="27"/>
+      <c r="AL19" s="27"/>
+      <c r="AM19" s="27"/>
+      <c r="AN19" s="27"/>
+      <c r="AO19" s="27"/>
+      <c r="AP19" s="27"/>
+      <c r="AQ19" s="27"/>
+      <c r="AR19" s="27"/>
+      <c r="AS19" s="27"/>
+      <c r="AT19" s="27"/>
+      <c r="AU19" s="27"/>
+      <c r="AV19" s="27"/>
+      <c r="AW19" s="27"/>
+      <c r="AX19" s="27"/>
     </row>
-    <row r="20" spans="2:52" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="31"/>
-      <c r="C20" s="32"/>
-      <c r="D20" s="32"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="32"/>
-      <c r="G20" s="32"/>
-      <c r="H20" s="32"/>
-      <c r="I20" s="32"/>
-      <c r="J20" s="32"/>
-      <c r="K20" s="32"/>
-      <c r="L20" s="32"/>
-      <c r="M20" s="32"/>
-      <c r="N20" s="32"/>
-      <c r="O20" s="32"/>
-      <c r="P20" s="32"/>
-      <c r="Q20" s="32"/>
-      <c r="R20" s="32"/>
-      <c r="S20" s="32"/>
-      <c r="T20" s="32"/>
-      <c r="U20" s="32"/>
-      <c r="V20" s="32"/>
-      <c r="W20" s="32"/>
-      <c r="X20" s="32"/>
-      <c r="Y20" s="32"/>
-      <c r="Z20" s="32"/>
-      <c r="AA20" s="32"/>
-      <c r="AB20" s="32"/>
-      <c r="AC20" s="32"/>
-      <c r="AD20" s="32"/>
-      <c r="AE20" s="32"/>
-      <c r="AF20" s="32"/>
-      <c r="AG20" s="32"/>
-      <c r="AH20" s="32"/>
-      <c r="AI20" s="32"/>
-      <c r="AJ20" s="32"/>
-      <c r="AK20" s="32"/>
-      <c r="AL20" s="32"/>
-      <c r="AM20" s="32"/>
-      <c r="AN20" s="32"/>
-      <c r="AO20" s="32"/>
-      <c r="AP20" s="32"/>
-      <c r="AQ20" s="32"/>
-      <c r="AR20" s="32"/>
-      <c r="AS20" s="32"/>
-      <c r="AT20" s="32"/>
-      <c r="AU20" s="32"/>
-      <c r="AV20" s="32"/>
-      <c r="AW20" s="32"/>
-      <c r="AX20" s="33"/>
+    <row r="20" spans="2:52" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B20" s="24"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="25"/>
+      <c r="I20" s="25"/>
+      <c r="J20" s="25"/>
+      <c r="K20" s="25"/>
+      <c r="L20" s="25"/>
+      <c r="M20" s="25"/>
+      <c r="N20" s="25"/>
+      <c r="O20" s="25"/>
+      <c r="P20" s="25"/>
+      <c r="Q20" s="25"/>
+      <c r="R20" s="25"/>
+      <c r="S20" s="25"/>
+      <c r="T20" s="25"/>
+      <c r="U20" s="25"/>
+      <c r="V20" s="25"/>
+      <c r="W20" s="25"/>
+      <c r="X20" s="25"/>
+      <c r="Y20" s="25"/>
+      <c r="Z20" s="25"/>
+      <c r="AA20" s="25"/>
+      <c r="AB20" s="25"/>
+      <c r="AC20" s="25"/>
+      <c r="AD20" s="25"/>
+      <c r="AE20" s="25"/>
+      <c r="AF20" s="25"/>
+      <c r="AG20" s="25"/>
+      <c r="AH20" s="25"/>
+      <c r="AI20" s="25"/>
+      <c r="AJ20" s="25"/>
+      <c r="AK20" s="25"/>
+      <c r="AL20" s="25"/>
+      <c r="AM20" s="25"/>
+      <c r="AN20" s="25"/>
+      <c r="AO20" s="25"/>
+      <c r="AP20" s="25"/>
+      <c r="AQ20" s="25"/>
+      <c r="AR20" s="25"/>
+      <c r="AS20" s="25"/>
+      <c r="AT20" s="25"/>
+      <c r="AU20" s="25"/>
+      <c r="AV20" s="25"/>
+      <c r="AW20" s="25"/>
+      <c r="AX20" s="26"/>
     </row>
-    <row r="21" spans="2:52" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:52" x14ac:dyDescent="0.15">
       <c r="B21" s="6" t="s">
         <v>14</v>
       </c>
@@ -4864,370 +4875,370 @@
       <c r="AN21" s="1"/>
       <c r="AO21" s="1"/>
     </row>
-    <row r="22" spans="2:52" x14ac:dyDescent="0.2">
-      <c r="B22" s="24" t="s">
-        <v>41</v>
+    <row r="22" spans="2:52" x14ac:dyDescent="0.15">
+      <c r="B22" s="27" t="s">
+        <v>40</v>
       </c>
-      <c r="C22" s="24"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="24"/>
-      <c r="F22" s="24"/>
-      <c r="G22" s="24"/>
-      <c r="H22" s="24"/>
-      <c r="I22" s="24"/>
-      <c r="J22" s="24"/>
-      <c r="K22" s="24"/>
-      <c r="L22" s="24"/>
-      <c r="M22" s="24"/>
-      <c r="N22" s="24"/>
-      <c r="O22" s="24"/>
-      <c r="P22" s="24"/>
-      <c r="Q22" s="24"/>
-      <c r="R22" s="24"/>
-      <c r="S22" s="24"/>
-      <c r="T22" s="24"/>
-      <c r="U22" s="24"/>
-      <c r="V22" s="24"/>
-      <c r="W22" s="24"/>
-      <c r="X22" s="24"/>
-      <c r="Y22" s="24"/>
-      <c r="Z22" s="24"/>
-      <c r="AA22" s="24"/>
-      <c r="AB22" s="24"/>
-      <c r="AC22" s="24"/>
-      <c r="AD22" s="24"/>
-      <c r="AE22" s="24"/>
-      <c r="AF22" s="24"/>
-      <c r="AG22" s="24"/>
-      <c r="AH22" s="24"/>
-      <c r="AI22" s="24"/>
-      <c r="AJ22" s="24"/>
-      <c r="AK22" s="24"/>
-      <c r="AL22" s="24"/>
-      <c r="AM22" s="24"/>
-      <c r="AN22" s="24"/>
-      <c r="AO22" s="24"/>
-      <c r="AP22" s="24"/>
-      <c r="AQ22" s="24"/>
-      <c r="AR22" s="24"/>
-      <c r="AS22" s="24"/>
-      <c r="AT22" s="24"/>
-      <c r="AU22" s="24"/>
-      <c r="AV22" s="24"/>
-      <c r="AW22" s="24"/>
-      <c r="AX22" s="24"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="27"/>
+      <c r="J22" s="27"/>
+      <c r="K22" s="27"/>
+      <c r="L22" s="27"/>
+      <c r="M22" s="27"/>
+      <c r="N22" s="27"/>
+      <c r="O22" s="27"/>
+      <c r="P22" s="27"/>
+      <c r="Q22" s="27"/>
+      <c r="R22" s="27"/>
+      <c r="S22" s="27"/>
+      <c r="T22" s="27"/>
+      <c r="U22" s="27"/>
+      <c r="V22" s="27"/>
+      <c r="W22" s="27"/>
+      <c r="X22" s="27"/>
+      <c r="Y22" s="27"/>
+      <c r="Z22" s="27"/>
+      <c r="AA22" s="27"/>
+      <c r="AB22" s="27"/>
+      <c r="AC22" s="27"/>
+      <c r="AD22" s="27"/>
+      <c r="AE22" s="27"/>
+      <c r="AF22" s="27"/>
+      <c r="AG22" s="27"/>
+      <c r="AH22" s="27"/>
+      <c r="AI22" s="27"/>
+      <c r="AJ22" s="27"/>
+      <c r="AK22" s="27"/>
+      <c r="AL22" s="27"/>
+      <c r="AM22" s="27"/>
+      <c r="AN22" s="27"/>
+      <c r="AO22" s="27"/>
+      <c r="AP22" s="27"/>
+      <c r="AQ22" s="27"/>
+      <c r="AR22" s="27"/>
+      <c r="AS22" s="27"/>
+      <c r="AT22" s="27"/>
+      <c r="AU22" s="27"/>
+      <c r="AV22" s="27"/>
+      <c r="AW22" s="27"/>
+      <c r="AX22" s="27"/>
     </row>
-    <row r="23" spans="2:52" x14ac:dyDescent="0.2">
-      <c r="B23" s="31"/>
-      <c r="C23" s="32"/>
-      <c r="D23" s="32"/>
-      <c r="E23" s="32"/>
-      <c r="F23" s="32"/>
-      <c r="G23" s="32"/>
-      <c r="H23" s="32"/>
-      <c r="I23" s="32"/>
-      <c r="J23" s="32"/>
-      <c r="K23" s="32"/>
-      <c r="L23" s="32"/>
-      <c r="M23" s="32"/>
-      <c r="N23" s="32"/>
-      <c r="O23" s="32"/>
-      <c r="P23" s="32"/>
-      <c r="Q23" s="32"/>
-      <c r="R23" s="32"/>
-      <c r="S23" s="32"/>
-      <c r="T23" s="32"/>
-      <c r="U23" s="32"/>
-      <c r="V23" s="32"/>
-      <c r="W23" s="32"/>
-      <c r="X23" s="32"/>
-      <c r="Y23" s="32"/>
-      <c r="Z23" s="32"/>
-      <c r="AA23" s="32"/>
-      <c r="AB23" s="32"/>
-      <c r="AC23" s="32"/>
-      <c r="AD23" s="32"/>
-      <c r="AE23" s="32"/>
-      <c r="AF23" s="32"/>
-      <c r="AG23" s="32"/>
-      <c r="AH23" s="32"/>
-      <c r="AI23" s="32"/>
-      <c r="AJ23" s="32"/>
-      <c r="AK23" s="32"/>
-      <c r="AL23" s="32"/>
-      <c r="AM23" s="32"/>
-      <c r="AN23" s="32"/>
-      <c r="AO23" s="32"/>
-      <c r="AP23" s="32"/>
-      <c r="AQ23" s="32"/>
-      <c r="AR23" s="32"/>
-      <c r="AS23" s="32"/>
-      <c r="AT23" s="32"/>
-      <c r="AU23" s="32"/>
-      <c r="AV23" s="32"/>
-      <c r="AW23" s="32"/>
-      <c r="AX23" s="33"/>
+    <row r="23" spans="2:52" x14ac:dyDescent="0.15">
+      <c r="B23" s="24"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="25"/>
+      <c r="I23" s="25"/>
+      <c r="J23" s="25"/>
+      <c r="K23" s="25"/>
+      <c r="L23" s="25"/>
+      <c r="M23" s="25"/>
+      <c r="N23" s="25"/>
+      <c r="O23" s="25"/>
+      <c r="P23" s="25"/>
+      <c r="Q23" s="25"/>
+      <c r="R23" s="25"/>
+      <c r="S23" s="25"/>
+      <c r="T23" s="25"/>
+      <c r="U23" s="25"/>
+      <c r="V23" s="25"/>
+      <c r="W23" s="25"/>
+      <c r="X23" s="25"/>
+      <c r="Y23" s="25"/>
+      <c r="Z23" s="25"/>
+      <c r="AA23" s="25"/>
+      <c r="AB23" s="25"/>
+      <c r="AC23" s="25"/>
+      <c r="AD23" s="25"/>
+      <c r="AE23" s="25"/>
+      <c r="AF23" s="25"/>
+      <c r="AG23" s="25"/>
+      <c r="AH23" s="25"/>
+      <c r="AI23" s="25"/>
+      <c r="AJ23" s="25"/>
+      <c r="AK23" s="25"/>
+      <c r="AL23" s="25"/>
+      <c r="AM23" s="25"/>
+      <c r="AN23" s="25"/>
+      <c r="AO23" s="25"/>
+      <c r="AP23" s="25"/>
+      <c r="AQ23" s="25"/>
+      <c r="AR23" s="25"/>
+      <c r="AS23" s="25"/>
+      <c r="AT23" s="25"/>
+      <c r="AU23" s="25"/>
+      <c r="AV23" s="25"/>
+      <c r="AW23" s="25"/>
+      <c r="AX23" s="26"/>
     </row>
-    <row r="24" spans="2:52" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="31"/>
-      <c r="C24" s="32"/>
-      <c r="D24" s="32"/>
-      <c r="E24" s="32"/>
-      <c r="F24" s="32"/>
-      <c r="G24" s="32"/>
-      <c r="H24" s="32"/>
-      <c r="I24" s="32"/>
-      <c r="J24" s="32"/>
-      <c r="K24" s="32"/>
-      <c r="L24" s="32"/>
-      <c r="M24" s="32"/>
-      <c r="N24" s="32"/>
-      <c r="O24" s="32"/>
-      <c r="P24" s="32"/>
-      <c r="Q24" s="32"/>
-      <c r="R24" s="32"/>
-      <c r="S24" s="32"/>
-      <c r="T24" s="32"/>
-      <c r="U24" s="32"/>
-      <c r="V24" s="32"/>
-      <c r="W24" s="32"/>
-      <c r="X24" s="32"/>
-      <c r="Y24" s="32"/>
-      <c r="Z24" s="32"/>
-      <c r="AA24" s="32"/>
-      <c r="AB24" s="32"/>
-      <c r="AC24" s="32"/>
-      <c r="AD24" s="32"/>
-      <c r="AE24" s="32"/>
-      <c r="AF24" s="32"/>
-      <c r="AG24" s="32"/>
-      <c r="AH24" s="32"/>
-      <c r="AI24" s="32"/>
-      <c r="AJ24" s="32"/>
-      <c r="AK24" s="32"/>
-      <c r="AL24" s="32"/>
-      <c r="AM24" s="32"/>
-      <c r="AN24" s="32"/>
-      <c r="AO24" s="32"/>
-      <c r="AP24" s="32"/>
-      <c r="AQ24" s="32"/>
-      <c r="AR24" s="32"/>
-      <c r="AS24" s="32"/>
-      <c r="AT24" s="32"/>
-      <c r="AU24" s="32"/>
-      <c r="AV24" s="32"/>
-      <c r="AW24" s="32"/>
-      <c r="AX24" s="33"/>
+    <row r="24" spans="2:52" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B24" s="24"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="25"/>
+      <c r="I24" s="25"/>
+      <c r="J24" s="25"/>
+      <c r="K24" s="25"/>
+      <c r="L24" s="25"/>
+      <c r="M24" s="25"/>
+      <c r="N24" s="25"/>
+      <c r="O24" s="25"/>
+      <c r="P24" s="25"/>
+      <c r="Q24" s="25"/>
+      <c r="R24" s="25"/>
+      <c r="S24" s="25"/>
+      <c r="T24" s="25"/>
+      <c r="U24" s="25"/>
+      <c r="V24" s="25"/>
+      <c r="W24" s="25"/>
+      <c r="X24" s="25"/>
+      <c r="Y24" s="25"/>
+      <c r="Z24" s="25"/>
+      <c r="AA24" s="25"/>
+      <c r="AB24" s="25"/>
+      <c r="AC24" s="25"/>
+      <c r="AD24" s="25"/>
+      <c r="AE24" s="25"/>
+      <c r="AF24" s="25"/>
+      <c r="AG24" s="25"/>
+      <c r="AH24" s="25"/>
+      <c r="AI24" s="25"/>
+      <c r="AJ24" s="25"/>
+      <c r="AK24" s="25"/>
+      <c r="AL24" s="25"/>
+      <c r="AM24" s="25"/>
+      <c r="AN24" s="25"/>
+      <c r="AO24" s="25"/>
+      <c r="AP24" s="25"/>
+      <c r="AQ24" s="25"/>
+      <c r="AR24" s="25"/>
+      <c r="AS24" s="25"/>
+      <c r="AT24" s="25"/>
+      <c r="AU24" s="25"/>
+      <c r="AV24" s="25"/>
+      <c r="AW24" s="25"/>
+      <c r="AX24" s="26"/>
     </row>
-    <row r="25" spans="2:52" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="31"/>
-      <c r="C25" s="32"/>
-      <c r="D25" s="32"/>
-      <c r="E25" s="32"/>
-      <c r="F25" s="32"/>
-      <c r="G25" s="32"/>
-      <c r="H25" s="32"/>
-      <c r="I25" s="32"/>
-      <c r="J25" s="32"/>
-      <c r="K25" s="32"/>
-      <c r="L25" s="32"/>
-      <c r="M25" s="32"/>
-      <c r="N25" s="32"/>
-      <c r="O25" s="32"/>
-      <c r="P25" s="32"/>
-      <c r="Q25" s="32"/>
-      <c r="R25" s="32"/>
-      <c r="S25" s="32"/>
-      <c r="T25" s="32"/>
-      <c r="U25" s="32"/>
-      <c r="V25" s="32"/>
-      <c r="W25" s="32"/>
-      <c r="X25" s="32"/>
-      <c r="Y25" s="32"/>
-      <c r="Z25" s="32"/>
-      <c r="AA25" s="32"/>
-      <c r="AB25" s="32"/>
-      <c r="AC25" s="32"/>
-      <c r="AD25" s="32"/>
-      <c r="AE25" s="32"/>
-      <c r="AF25" s="32"/>
-      <c r="AG25" s="32"/>
-      <c r="AH25" s="32"/>
-      <c r="AI25" s="32"/>
-      <c r="AJ25" s="32"/>
-      <c r="AK25" s="32"/>
-      <c r="AL25" s="32"/>
-      <c r="AM25" s="32"/>
-      <c r="AN25" s="32"/>
-      <c r="AO25" s="32"/>
-      <c r="AP25" s="32"/>
-      <c r="AQ25" s="32"/>
-      <c r="AR25" s="32"/>
-      <c r="AS25" s="32"/>
-      <c r="AT25" s="32"/>
-      <c r="AU25" s="32"/>
-      <c r="AV25" s="32"/>
-      <c r="AW25" s="32"/>
-      <c r="AX25" s="33"/>
+    <row r="25" spans="2:52" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B25" s="24"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="25"/>
+      <c r="I25" s="25"/>
+      <c r="J25" s="25"/>
+      <c r="K25" s="25"/>
+      <c r="L25" s="25"/>
+      <c r="M25" s="25"/>
+      <c r="N25" s="25"/>
+      <c r="O25" s="25"/>
+      <c r="P25" s="25"/>
+      <c r="Q25" s="25"/>
+      <c r="R25" s="25"/>
+      <c r="S25" s="25"/>
+      <c r="T25" s="25"/>
+      <c r="U25" s="25"/>
+      <c r="V25" s="25"/>
+      <c r="W25" s="25"/>
+      <c r="X25" s="25"/>
+      <c r="Y25" s="25"/>
+      <c r="Z25" s="25"/>
+      <c r="AA25" s="25"/>
+      <c r="AB25" s="25"/>
+      <c r="AC25" s="25"/>
+      <c r="AD25" s="25"/>
+      <c r="AE25" s="25"/>
+      <c r="AF25" s="25"/>
+      <c r="AG25" s="25"/>
+      <c r="AH25" s="25"/>
+      <c r="AI25" s="25"/>
+      <c r="AJ25" s="25"/>
+      <c r="AK25" s="25"/>
+      <c r="AL25" s="25"/>
+      <c r="AM25" s="25"/>
+      <c r="AN25" s="25"/>
+      <c r="AO25" s="25"/>
+      <c r="AP25" s="25"/>
+      <c r="AQ25" s="25"/>
+      <c r="AR25" s="25"/>
+      <c r="AS25" s="25"/>
+      <c r="AT25" s="25"/>
+      <c r="AU25" s="25"/>
+      <c r="AV25" s="25"/>
+      <c r="AW25" s="25"/>
+      <c r="AX25" s="26"/>
       <c r="AY25" s="1"/>
       <c r="AZ25" s="1"/>
     </row>
-    <row r="26" spans="2:52" x14ac:dyDescent="0.2">
-      <c r="B26" s="31"/>
-      <c r="C26" s="32"/>
-      <c r="D26" s="32"/>
-      <c r="E26" s="32"/>
-      <c r="F26" s="32"/>
-      <c r="G26" s="32"/>
-      <c r="H26" s="32"/>
-      <c r="I26" s="32"/>
-      <c r="J26" s="32"/>
-      <c r="K26" s="32"/>
-      <c r="L26" s="32"/>
-      <c r="M26" s="32"/>
-      <c r="N26" s="32"/>
-      <c r="O26" s="32"/>
-      <c r="P26" s="32"/>
-      <c r="Q26" s="32"/>
-      <c r="R26" s="32"/>
-      <c r="S26" s="32"/>
-      <c r="T26" s="32"/>
-      <c r="U26" s="32"/>
-      <c r="V26" s="32"/>
-      <c r="W26" s="32"/>
-      <c r="X26" s="32"/>
-      <c r="Y26" s="32"/>
-      <c r="Z26" s="32"/>
-      <c r="AA26" s="32"/>
-      <c r="AB26" s="32"/>
-      <c r="AC26" s="32"/>
-      <c r="AD26" s="32"/>
-      <c r="AE26" s="32"/>
-      <c r="AF26" s="32"/>
-      <c r="AG26" s="32"/>
-      <c r="AH26" s="32"/>
-      <c r="AI26" s="32"/>
-      <c r="AJ26" s="32"/>
-      <c r="AK26" s="32"/>
-      <c r="AL26" s="32"/>
-      <c r="AM26" s="32"/>
-      <c r="AN26" s="32"/>
-      <c r="AO26" s="32"/>
-      <c r="AP26" s="32"/>
-      <c r="AQ26" s="32"/>
-      <c r="AR26" s="32"/>
-      <c r="AS26" s="32"/>
-      <c r="AT26" s="32"/>
-      <c r="AU26" s="32"/>
-      <c r="AV26" s="32"/>
-      <c r="AW26" s="32"/>
-      <c r="AX26" s="33"/>
+    <row r="26" spans="2:52" x14ac:dyDescent="0.15">
+      <c r="B26" s="24"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="25"/>
+      <c r="E26" s="25"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="25"/>
+      <c r="H26" s="25"/>
+      <c r="I26" s="25"/>
+      <c r="J26" s="25"/>
+      <c r="K26" s="25"/>
+      <c r="L26" s="25"/>
+      <c r="M26" s="25"/>
+      <c r="N26" s="25"/>
+      <c r="O26" s="25"/>
+      <c r="P26" s="25"/>
+      <c r="Q26" s="25"/>
+      <c r="R26" s="25"/>
+      <c r="S26" s="25"/>
+      <c r="T26" s="25"/>
+      <c r="U26" s="25"/>
+      <c r="V26" s="25"/>
+      <c r="W26" s="25"/>
+      <c r="X26" s="25"/>
+      <c r="Y26" s="25"/>
+      <c r="Z26" s="25"/>
+      <c r="AA26" s="25"/>
+      <c r="AB26" s="25"/>
+      <c r="AC26" s="25"/>
+      <c r="AD26" s="25"/>
+      <c r="AE26" s="25"/>
+      <c r="AF26" s="25"/>
+      <c r="AG26" s="25"/>
+      <c r="AH26" s="25"/>
+      <c r="AI26" s="25"/>
+      <c r="AJ26" s="25"/>
+      <c r="AK26" s="25"/>
+      <c r="AL26" s="25"/>
+      <c r="AM26" s="25"/>
+      <c r="AN26" s="25"/>
+      <c r="AO26" s="25"/>
+      <c r="AP26" s="25"/>
+      <c r="AQ26" s="25"/>
+      <c r="AR26" s="25"/>
+      <c r="AS26" s="25"/>
+      <c r="AT26" s="25"/>
+      <c r="AU26" s="25"/>
+      <c r="AV26" s="25"/>
+      <c r="AW26" s="25"/>
+      <c r="AX26" s="26"/>
     </row>
-    <row r="27" spans="2:52" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="31"/>
-      <c r="C27" s="32"/>
-      <c r="D27" s="32"/>
-      <c r="E27" s="32"/>
-      <c r="F27" s="32"/>
-      <c r="G27" s="32"/>
-      <c r="H27" s="32"/>
-      <c r="I27" s="32"/>
-      <c r="J27" s="32"/>
-      <c r="K27" s="32"/>
-      <c r="L27" s="32"/>
-      <c r="M27" s="32"/>
-      <c r="N27" s="32"/>
-      <c r="O27" s="32"/>
-      <c r="P27" s="32"/>
-      <c r="Q27" s="32"/>
-      <c r="R27" s="32"/>
-      <c r="S27" s="32"/>
-      <c r="T27" s="32"/>
-      <c r="U27" s="32"/>
-      <c r="V27" s="32"/>
-      <c r="W27" s="32"/>
-      <c r="X27" s="32"/>
-      <c r="Y27" s="32"/>
-      <c r="Z27" s="32"/>
-      <c r="AA27" s="32"/>
-      <c r="AB27" s="32"/>
-      <c r="AC27" s="32"/>
-      <c r="AD27" s="32"/>
-      <c r="AE27" s="32"/>
-      <c r="AF27" s="32"/>
-      <c r="AG27" s="32"/>
-      <c r="AH27" s="32"/>
-      <c r="AI27" s="32"/>
-      <c r="AJ27" s="32"/>
-      <c r="AK27" s="32"/>
-      <c r="AL27" s="32"/>
-      <c r="AM27" s="32"/>
-      <c r="AN27" s="32"/>
-      <c r="AO27" s="32"/>
-      <c r="AP27" s="32"/>
-      <c r="AQ27" s="32"/>
-      <c r="AR27" s="32"/>
-      <c r="AS27" s="32"/>
-      <c r="AT27" s="32"/>
-      <c r="AU27" s="32"/>
-      <c r="AV27" s="32"/>
-      <c r="AW27" s="32"/>
-      <c r="AX27" s="33"/>
+    <row r="27" spans="2:52" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B27" s="24"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="25"/>
+      <c r="H27" s="25"/>
+      <c r="I27" s="25"/>
+      <c r="J27" s="25"/>
+      <c r="K27" s="25"/>
+      <c r="L27" s="25"/>
+      <c r="M27" s="25"/>
+      <c r="N27" s="25"/>
+      <c r="O27" s="25"/>
+      <c r="P27" s="25"/>
+      <c r="Q27" s="25"/>
+      <c r="R27" s="25"/>
+      <c r="S27" s="25"/>
+      <c r="T27" s="25"/>
+      <c r="U27" s="25"/>
+      <c r="V27" s="25"/>
+      <c r="W27" s="25"/>
+      <c r="X27" s="25"/>
+      <c r="Y27" s="25"/>
+      <c r="Z27" s="25"/>
+      <c r="AA27" s="25"/>
+      <c r="AB27" s="25"/>
+      <c r="AC27" s="25"/>
+      <c r="AD27" s="25"/>
+      <c r="AE27" s="25"/>
+      <c r="AF27" s="25"/>
+      <c r="AG27" s="25"/>
+      <c r="AH27" s="25"/>
+      <c r="AI27" s="25"/>
+      <c r="AJ27" s="25"/>
+      <c r="AK27" s="25"/>
+      <c r="AL27" s="25"/>
+      <c r="AM27" s="25"/>
+      <c r="AN27" s="25"/>
+      <c r="AO27" s="25"/>
+      <c r="AP27" s="25"/>
+      <c r="AQ27" s="25"/>
+      <c r="AR27" s="25"/>
+      <c r="AS27" s="25"/>
+      <c r="AT27" s="25"/>
+      <c r="AU27" s="25"/>
+      <c r="AV27" s="25"/>
+      <c r="AW27" s="25"/>
+      <c r="AX27" s="26"/>
       <c r="AY27" s="1"/>
       <c r="AZ27" s="1"/>
     </row>
-    <row r="28" spans="2:52" x14ac:dyDescent="0.2">
-      <c r="B28" s="24"/>
-      <c r="C28" s="24"/>
-      <c r="D28" s="24"/>
-      <c r="E28" s="24"/>
-      <c r="F28" s="24"/>
-      <c r="G28" s="24"/>
-      <c r="H28" s="24"/>
-      <c r="I28" s="24"/>
-      <c r="J28" s="24"/>
-      <c r="K28" s="24"/>
-      <c r="L28" s="24"/>
-      <c r="M28" s="24"/>
-      <c r="N28" s="24"/>
-      <c r="O28" s="24"/>
-      <c r="P28" s="24"/>
-      <c r="Q28" s="24"/>
-      <c r="R28" s="24"/>
-      <c r="S28" s="24"/>
-      <c r="T28" s="24"/>
-      <c r="U28" s="24"/>
-      <c r="V28" s="24"/>
-      <c r="W28" s="24"/>
-      <c r="X28" s="24"/>
-      <c r="Y28" s="24"/>
-      <c r="Z28" s="24"/>
-      <c r="AA28" s="24"/>
-      <c r="AB28" s="24"/>
-      <c r="AC28" s="24"/>
-      <c r="AD28" s="24"/>
-      <c r="AE28" s="24"/>
-      <c r="AF28" s="24"/>
-      <c r="AG28" s="24"/>
-      <c r="AH28" s="24"/>
-      <c r="AI28" s="24"/>
-      <c r="AJ28" s="24"/>
-      <c r="AK28" s="24"/>
-      <c r="AL28" s="24"/>
-      <c r="AM28" s="24"/>
-      <c r="AN28" s="24"/>
-      <c r="AO28" s="24"/>
-      <c r="AP28" s="24"/>
-      <c r="AQ28" s="24"/>
-      <c r="AR28" s="24"/>
-      <c r="AS28" s="24"/>
-      <c r="AT28" s="24"/>
-      <c r="AU28" s="24"/>
-      <c r="AV28" s="24"/>
-      <c r="AW28" s="24"/>
-      <c r="AX28" s="24"/>
+    <row r="28" spans="2:52" x14ac:dyDescent="0.15">
+      <c r="B28" s="27"/>
+      <c r="C28" s="27"/>
+      <c r="D28" s="27"/>
+      <c r="E28" s="27"/>
+      <c r="F28" s="27"/>
+      <c r="G28" s="27"/>
+      <c r="H28" s="27"/>
+      <c r="I28" s="27"/>
+      <c r="J28" s="27"/>
+      <c r="K28" s="27"/>
+      <c r="L28" s="27"/>
+      <c r="M28" s="27"/>
+      <c r="N28" s="27"/>
+      <c r="O28" s="27"/>
+      <c r="P28" s="27"/>
+      <c r="Q28" s="27"/>
+      <c r="R28" s="27"/>
+      <c r="S28" s="27"/>
+      <c r="T28" s="27"/>
+      <c r="U28" s="27"/>
+      <c r="V28" s="27"/>
+      <c r="W28" s="27"/>
+      <c r="X28" s="27"/>
+      <c r="Y28" s="27"/>
+      <c r="Z28" s="27"/>
+      <c r="AA28" s="27"/>
+      <c r="AB28" s="27"/>
+      <c r="AC28" s="27"/>
+      <c r="AD28" s="27"/>
+      <c r="AE28" s="27"/>
+      <c r="AF28" s="27"/>
+      <c r="AG28" s="27"/>
+      <c r="AH28" s="27"/>
+      <c r="AI28" s="27"/>
+      <c r="AJ28" s="27"/>
+      <c r="AK28" s="27"/>
+      <c r="AL28" s="27"/>
+      <c r="AM28" s="27"/>
+      <c r="AN28" s="27"/>
+      <c r="AO28" s="27"/>
+      <c r="AP28" s="27"/>
+      <c r="AQ28" s="27"/>
+      <c r="AR28" s="27"/>
+      <c r="AS28" s="27"/>
+      <c r="AT28" s="27"/>
+      <c r="AU28" s="27"/>
+      <c r="AV28" s="27"/>
+      <c r="AW28" s="27"/>
+      <c r="AX28" s="27"/>
     </row>
-    <row r="29" spans="2:52" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:52" x14ac:dyDescent="0.15">
       <c r="B29" s="6" t="s">
         <v>27</v>
       </c>
@@ -5271,264 +5282,264 @@
       <c r="AN29" s="1"/>
       <c r="AO29" s="1"/>
     </row>
-    <row r="30" spans="2:52" x14ac:dyDescent="0.2">
-      <c r="B30" s="24" t="s">
-        <v>33</v>
+    <row r="30" spans="2:52" x14ac:dyDescent="0.15">
+      <c r="B30" s="27" t="s">
+        <v>32</v>
       </c>
-      <c r="C30" s="24"/>
-      <c r="D30" s="24"/>
-      <c r="E30" s="24"/>
-      <c r="F30" s="24"/>
-      <c r="G30" s="24"/>
-      <c r="H30" s="24"/>
-      <c r="I30" s="24"/>
-      <c r="J30" s="24"/>
-      <c r="K30" s="24"/>
-      <c r="L30" s="24"/>
-      <c r="M30" s="24"/>
-      <c r="N30" s="24"/>
-      <c r="O30" s="24"/>
-      <c r="P30" s="24"/>
-      <c r="Q30" s="24"/>
-      <c r="R30" s="24"/>
-      <c r="S30" s="24"/>
-      <c r="T30" s="24"/>
-      <c r="U30" s="24"/>
-      <c r="V30" s="24"/>
-      <c r="W30" s="24"/>
-      <c r="X30" s="24"/>
-      <c r="Y30" s="24"/>
-      <c r="Z30" s="24"/>
-      <c r="AA30" s="24"/>
-      <c r="AB30" s="24"/>
-      <c r="AC30" s="24"/>
-      <c r="AD30" s="24"/>
-      <c r="AE30" s="24"/>
-      <c r="AF30" s="24"/>
-      <c r="AG30" s="24"/>
-      <c r="AH30" s="24"/>
-      <c r="AI30" s="24"/>
-      <c r="AJ30" s="24"/>
-      <c r="AK30" s="24"/>
-      <c r="AL30" s="24"/>
-      <c r="AM30" s="24"/>
-      <c r="AN30" s="24"/>
-      <c r="AO30" s="24"/>
-      <c r="AP30" s="24"/>
-      <c r="AQ30" s="24"/>
-      <c r="AR30" s="24"/>
-      <c r="AS30" s="24"/>
-      <c r="AT30" s="24"/>
-      <c r="AU30" s="24"/>
-      <c r="AV30" s="24"/>
-      <c r="AW30" s="24"/>
-      <c r="AX30" s="24"/>
+      <c r="C30" s="27"/>
+      <c r="D30" s="27"/>
+      <c r="E30" s="27"/>
+      <c r="F30" s="27"/>
+      <c r="G30" s="27"/>
+      <c r="H30" s="27"/>
+      <c r="I30" s="27"/>
+      <c r="J30" s="27"/>
+      <c r="K30" s="27"/>
+      <c r="L30" s="27"/>
+      <c r="M30" s="27"/>
+      <c r="N30" s="27"/>
+      <c r="O30" s="27"/>
+      <c r="P30" s="27"/>
+      <c r="Q30" s="27"/>
+      <c r="R30" s="27"/>
+      <c r="S30" s="27"/>
+      <c r="T30" s="27"/>
+      <c r="U30" s="27"/>
+      <c r="V30" s="27"/>
+      <c r="W30" s="27"/>
+      <c r="X30" s="27"/>
+      <c r="Y30" s="27"/>
+      <c r="Z30" s="27"/>
+      <c r="AA30" s="27"/>
+      <c r="AB30" s="27"/>
+      <c r="AC30" s="27"/>
+      <c r="AD30" s="27"/>
+      <c r="AE30" s="27"/>
+      <c r="AF30" s="27"/>
+      <c r="AG30" s="27"/>
+      <c r="AH30" s="27"/>
+      <c r="AI30" s="27"/>
+      <c r="AJ30" s="27"/>
+      <c r="AK30" s="27"/>
+      <c r="AL30" s="27"/>
+      <c r="AM30" s="27"/>
+      <c r="AN30" s="27"/>
+      <c r="AO30" s="27"/>
+      <c r="AP30" s="27"/>
+      <c r="AQ30" s="27"/>
+      <c r="AR30" s="27"/>
+      <c r="AS30" s="27"/>
+      <c r="AT30" s="27"/>
+      <c r="AU30" s="27"/>
+      <c r="AV30" s="27"/>
+      <c r="AW30" s="27"/>
+      <c r="AX30" s="27"/>
     </row>
-    <row r="31" spans="2:52" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="24"/>
-      <c r="C31" s="24"/>
-      <c r="D31" s="24"/>
-      <c r="E31" s="24"/>
-      <c r="F31" s="24"/>
-      <c r="G31" s="24"/>
-      <c r="H31" s="24"/>
-      <c r="I31" s="24"/>
-      <c r="J31" s="24"/>
-      <c r="K31" s="24"/>
-      <c r="L31" s="24"/>
-      <c r="M31" s="24"/>
-      <c r="N31" s="24"/>
-      <c r="O31" s="24"/>
-      <c r="P31" s="24"/>
-      <c r="Q31" s="24"/>
-      <c r="R31" s="24"/>
-      <c r="S31" s="24"/>
-      <c r="T31" s="24"/>
-      <c r="U31" s="24"/>
-      <c r="V31" s="24"/>
-      <c r="W31" s="24"/>
-      <c r="X31" s="24"/>
-      <c r="Y31" s="24"/>
-      <c r="Z31" s="24"/>
-      <c r="AA31" s="24"/>
-      <c r="AB31" s="24"/>
-      <c r="AC31" s="24"/>
-      <c r="AD31" s="24"/>
-      <c r="AE31" s="24"/>
-      <c r="AF31" s="24"/>
-      <c r="AG31" s="24"/>
-      <c r="AH31" s="24"/>
-      <c r="AI31" s="24"/>
-      <c r="AJ31" s="24"/>
-      <c r="AK31" s="24"/>
-      <c r="AL31" s="24"/>
-      <c r="AM31" s="24"/>
-      <c r="AN31" s="24"/>
-      <c r="AO31" s="24"/>
-      <c r="AP31" s="24"/>
-      <c r="AQ31" s="24"/>
-      <c r="AR31" s="24"/>
-      <c r="AS31" s="24"/>
-      <c r="AT31" s="24"/>
-      <c r="AU31" s="24"/>
-      <c r="AV31" s="24"/>
-      <c r="AW31" s="24"/>
-      <c r="AX31" s="24"/>
+    <row r="31" spans="2:52" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B31" s="27"/>
+      <c r="C31" s="27"/>
+      <c r="D31" s="27"/>
+      <c r="E31" s="27"/>
+      <c r="F31" s="27"/>
+      <c r="G31" s="27"/>
+      <c r="H31" s="27"/>
+      <c r="I31" s="27"/>
+      <c r="J31" s="27"/>
+      <c r="K31" s="27"/>
+      <c r="L31" s="27"/>
+      <c r="M31" s="27"/>
+      <c r="N31" s="27"/>
+      <c r="O31" s="27"/>
+      <c r="P31" s="27"/>
+      <c r="Q31" s="27"/>
+      <c r="R31" s="27"/>
+      <c r="S31" s="27"/>
+      <c r="T31" s="27"/>
+      <c r="U31" s="27"/>
+      <c r="V31" s="27"/>
+      <c r="W31" s="27"/>
+      <c r="X31" s="27"/>
+      <c r="Y31" s="27"/>
+      <c r="Z31" s="27"/>
+      <c r="AA31" s="27"/>
+      <c r="AB31" s="27"/>
+      <c r="AC31" s="27"/>
+      <c r="AD31" s="27"/>
+      <c r="AE31" s="27"/>
+      <c r="AF31" s="27"/>
+      <c r="AG31" s="27"/>
+      <c r="AH31" s="27"/>
+      <c r="AI31" s="27"/>
+      <c r="AJ31" s="27"/>
+      <c r="AK31" s="27"/>
+      <c r="AL31" s="27"/>
+      <c r="AM31" s="27"/>
+      <c r="AN31" s="27"/>
+      <c r="AO31" s="27"/>
+      <c r="AP31" s="27"/>
+      <c r="AQ31" s="27"/>
+      <c r="AR31" s="27"/>
+      <c r="AS31" s="27"/>
+      <c r="AT31" s="27"/>
+      <c r="AU31" s="27"/>
+      <c r="AV31" s="27"/>
+      <c r="AW31" s="27"/>
+      <c r="AX31" s="27"/>
     </row>
-    <row r="32" spans="2:52" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="31"/>
-      <c r="C32" s="32"/>
-      <c r="D32" s="32"/>
-      <c r="E32" s="32"/>
-      <c r="F32" s="32"/>
-      <c r="G32" s="32"/>
-      <c r="H32" s="32"/>
-      <c r="I32" s="32"/>
-      <c r="J32" s="32"/>
-      <c r="K32" s="32"/>
-      <c r="L32" s="32"/>
-      <c r="M32" s="32"/>
-      <c r="N32" s="32"/>
-      <c r="O32" s="32"/>
-      <c r="P32" s="32"/>
-      <c r="Q32" s="32"/>
-      <c r="R32" s="32"/>
-      <c r="S32" s="32"/>
-      <c r="T32" s="32"/>
-      <c r="U32" s="32"/>
-      <c r="V32" s="32"/>
-      <c r="W32" s="32"/>
-      <c r="X32" s="32"/>
-      <c r="Y32" s="32"/>
-      <c r="Z32" s="32"/>
-      <c r="AA32" s="32"/>
-      <c r="AB32" s="32"/>
-      <c r="AC32" s="32"/>
-      <c r="AD32" s="32"/>
-      <c r="AE32" s="32"/>
-      <c r="AF32" s="32"/>
-      <c r="AG32" s="32"/>
-      <c r="AH32" s="32"/>
-      <c r="AI32" s="32"/>
-      <c r="AJ32" s="32"/>
-      <c r="AK32" s="32"/>
-      <c r="AL32" s="32"/>
-      <c r="AM32" s="32"/>
-      <c r="AN32" s="32"/>
-      <c r="AO32" s="32"/>
-      <c r="AP32" s="32"/>
-      <c r="AQ32" s="32"/>
-      <c r="AR32" s="32"/>
-      <c r="AS32" s="32"/>
-      <c r="AT32" s="32"/>
-      <c r="AU32" s="32"/>
-      <c r="AV32" s="32"/>
-      <c r="AW32" s="32"/>
-      <c r="AX32" s="33"/>
+    <row r="32" spans="2:52" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B32" s="24"/>
+      <c r="C32" s="25"/>
+      <c r="D32" s="25"/>
+      <c r="E32" s="25"/>
+      <c r="F32" s="25"/>
+      <c r="G32" s="25"/>
+      <c r="H32" s="25"/>
+      <c r="I32" s="25"/>
+      <c r="J32" s="25"/>
+      <c r="K32" s="25"/>
+      <c r="L32" s="25"/>
+      <c r="M32" s="25"/>
+      <c r="N32" s="25"/>
+      <c r="O32" s="25"/>
+      <c r="P32" s="25"/>
+      <c r="Q32" s="25"/>
+      <c r="R32" s="25"/>
+      <c r="S32" s="25"/>
+      <c r="T32" s="25"/>
+      <c r="U32" s="25"/>
+      <c r="V32" s="25"/>
+      <c r="W32" s="25"/>
+      <c r="X32" s="25"/>
+      <c r="Y32" s="25"/>
+      <c r="Z32" s="25"/>
+      <c r="AA32" s="25"/>
+      <c r="AB32" s="25"/>
+      <c r="AC32" s="25"/>
+      <c r="AD32" s="25"/>
+      <c r="AE32" s="25"/>
+      <c r="AF32" s="25"/>
+      <c r="AG32" s="25"/>
+      <c r="AH32" s="25"/>
+      <c r="AI32" s="25"/>
+      <c r="AJ32" s="25"/>
+      <c r="AK32" s="25"/>
+      <c r="AL32" s="25"/>
+      <c r="AM32" s="25"/>
+      <c r="AN32" s="25"/>
+      <c r="AO32" s="25"/>
+      <c r="AP32" s="25"/>
+      <c r="AQ32" s="25"/>
+      <c r="AR32" s="25"/>
+      <c r="AS32" s="25"/>
+      <c r="AT32" s="25"/>
+      <c r="AU32" s="25"/>
+      <c r="AV32" s="25"/>
+      <c r="AW32" s="25"/>
+      <c r="AX32" s="26"/>
     </row>
-    <row r="33" spans="2:52" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="31"/>
-      <c r="C33" s="32"/>
-      <c r="D33" s="32"/>
-      <c r="E33" s="32"/>
-      <c r="F33" s="32"/>
-      <c r="G33" s="32"/>
-      <c r="H33" s="32"/>
-      <c r="I33" s="32"/>
-      <c r="J33" s="32"/>
-      <c r="K33" s="32"/>
-      <c r="L33" s="32"/>
-      <c r="M33" s="32"/>
-      <c r="N33" s="32"/>
-      <c r="O33" s="32"/>
-      <c r="P33" s="32"/>
-      <c r="Q33" s="32"/>
-      <c r="R33" s="32"/>
-      <c r="S33" s="32"/>
-      <c r="T33" s="32"/>
-      <c r="U33" s="32"/>
-      <c r="V33" s="32"/>
-      <c r="W33" s="32"/>
-      <c r="X33" s="32"/>
-      <c r="Y33" s="32"/>
-      <c r="Z33" s="32"/>
-      <c r="AA33" s="32"/>
-      <c r="AB33" s="32"/>
-      <c r="AC33" s="32"/>
-      <c r="AD33" s="32"/>
-      <c r="AE33" s="32"/>
-      <c r="AF33" s="32"/>
-      <c r="AG33" s="32"/>
-      <c r="AH33" s="32"/>
-      <c r="AI33" s="32"/>
-      <c r="AJ33" s="32"/>
-      <c r="AK33" s="32"/>
-      <c r="AL33" s="32"/>
-      <c r="AM33" s="32"/>
-      <c r="AN33" s="32"/>
-      <c r="AO33" s="32"/>
-      <c r="AP33" s="32"/>
-      <c r="AQ33" s="32"/>
-      <c r="AR33" s="32"/>
-      <c r="AS33" s="32"/>
-      <c r="AT33" s="32"/>
-      <c r="AU33" s="32"/>
-      <c r="AV33" s="32"/>
-      <c r="AW33" s="32"/>
-      <c r="AX33" s="33"/>
+    <row r="33" spans="2:52" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B33" s="24"/>
+      <c r="C33" s="25"/>
+      <c r="D33" s="25"/>
+      <c r="E33" s="25"/>
+      <c r="F33" s="25"/>
+      <c r="G33" s="25"/>
+      <c r="H33" s="25"/>
+      <c r="I33" s="25"/>
+      <c r="J33" s="25"/>
+      <c r="K33" s="25"/>
+      <c r="L33" s="25"/>
+      <c r="M33" s="25"/>
+      <c r="N33" s="25"/>
+      <c r="O33" s="25"/>
+      <c r="P33" s="25"/>
+      <c r="Q33" s="25"/>
+      <c r="R33" s="25"/>
+      <c r="S33" s="25"/>
+      <c r="T33" s="25"/>
+      <c r="U33" s="25"/>
+      <c r="V33" s="25"/>
+      <c r="W33" s="25"/>
+      <c r="X33" s="25"/>
+      <c r="Y33" s="25"/>
+      <c r="Z33" s="25"/>
+      <c r="AA33" s="25"/>
+      <c r="AB33" s="25"/>
+      <c r="AC33" s="25"/>
+      <c r="AD33" s="25"/>
+      <c r="AE33" s="25"/>
+      <c r="AF33" s="25"/>
+      <c r="AG33" s="25"/>
+      <c r="AH33" s="25"/>
+      <c r="AI33" s="25"/>
+      <c r="AJ33" s="25"/>
+      <c r="AK33" s="25"/>
+      <c r="AL33" s="25"/>
+      <c r="AM33" s="25"/>
+      <c r="AN33" s="25"/>
+      <c r="AO33" s="25"/>
+      <c r="AP33" s="25"/>
+      <c r="AQ33" s="25"/>
+      <c r="AR33" s="25"/>
+      <c r="AS33" s="25"/>
+      <c r="AT33" s="25"/>
+      <c r="AU33" s="25"/>
+      <c r="AV33" s="25"/>
+      <c r="AW33" s="25"/>
+      <c r="AX33" s="26"/>
     </row>
-    <row r="34" spans="2:52" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="31"/>
-      <c r="C34" s="32"/>
-      <c r="D34" s="32"/>
-      <c r="E34" s="32"/>
-      <c r="F34" s="32"/>
-      <c r="G34" s="32"/>
-      <c r="H34" s="32"/>
-      <c r="I34" s="32"/>
-      <c r="J34" s="32"/>
-      <c r="K34" s="32"/>
-      <c r="L34" s="32"/>
-      <c r="M34" s="32"/>
-      <c r="N34" s="32"/>
-      <c r="O34" s="32"/>
-      <c r="P34" s="32"/>
-      <c r="Q34" s="32"/>
-      <c r="R34" s="32"/>
-      <c r="S34" s="32"/>
-      <c r="T34" s="32"/>
-      <c r="U34" s="32"/>
-      <c r="V34" s="32"/>
-      <c r="W34" s="32"/>
-      <c r="X34" s="32"/>
-      <c r="Y34" s="32"/>
-      <c r="Z34" s="32"/>
-      <c r="AA34" s="32"/>
-      <c r="AB34" s="32"/>
-      <c r="AC34" s="32"/>
-      <c r="AD34" s="32"/>
-      <c r="AE34" s="32"/>
-      <c r="AF34" s="32"/>
-      <c r="AG34" s="32"/>
-      <c r="AH34" s="32"/>
-      <c r="AI34" s="32"/>
-      <c r="AJ34" s="32"/>
-      <c r="AK34" s="32"/>
-      <c r="AL34" s="32"/>
-      <c r="AM34" s="32"/>
-      <c r="AN34" s="32"/>
-      <c r="AO34" s="32"/>
-      <c r="AP34" s="32"/>
-      <c r="AQ34" s="32"/>
-      <c r="AR34" s="32"/>
-      <c r="AS34" s="32"/>
-      <c r="AT34" s="32"/>
-      <c r="AU34" s="32"/>
-      <c r="AV34" s="32"/>
-      <c r="AW34" s="32"/>
-      <c r="AX34" s="33"/>
+    <row r="34" spans="2:52" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B34" s="24"/>
+      <c r="C34" s="25"/>
+      <c r="D34" s="25"/>
+      <c r="E34" s="25"/>
+      <c r="F34" s="25"/>
+      <c r="G34" s="25"/>
+      <c r="H34" s="25"/>
+      <c r="I34" s="25"/>
+      <c r="J34" s="25"/>
+      <c r="K34" s="25"/>
+      <c r="L34" s="25"/>
+      <c r="M34" s="25"/>
+      <c r="N34" s="25"/>
+      <c r="O34" s="25"/>
+      <c r="P34" s="25"/>
+      <c r="Q34" s="25"/>
+      <c r="R34" s="25"/>
+      <c r="S34" s="25"/>
+      <c r="T34" s="25"/>
+      <c r="U34" s="25"/>
+      <c r="V34" s="25"/>
+      <c r="W34" s="25"/>
+      <c r="X34" s="25"/>
+      <c r="Y34" s="25"/>
+      <c r="Z34" s="25"/>
+      <c r="AA34" s="25"/>
+      <c r="AB34" s="25"/>
+      <c r="AC34" s="25"/>
+      <c r="AD34" s="25"/>
+      <c r="AE34" s="25"/>
+      <c r="AF34" s="25"/>
+      <c r="AG34" s="25"/>
+      <c r="AH34" s="25"/>
+      <c r="AI34" s="25"/>
+      <c r="AJ34" s="25"/>
+      <c r="AK34" s="25"/>
+      <c r="AL34" s="25"/>
+      <c r="AM34" s="25"/>
+      <c r="AN34" s="25"/>
+      <c r="AO34" s="25"/>
+      <c r="AP34" s="25"/>
+      <c r="AQ34" s="25"/>
+      <c r="AR34" s="25"/>
+      <c r="AS34" s="25"/>
+      <c r="AT34" s="25"/>
+      <c r="AU34" s="25"/>
+      <c r="AV34" s="25"/>
+      <c r="AW34" s="25"/>
+      <c r="AX34" s="26"/>
     </row>
-    <row r="35" spans="2:52" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:52" x14ac:dyDescent="0.15">
       <c r="B35" s="6" t="s">
         <v>28</v>
       </c>
@@ -5572,7 +5583,7 @@
       <c r="AN35" s="1"/>
       <c r="AO35" s="1"/>
     </row>
-    <row r="36" spans="2:52" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:52" x14ac:dyDescent="0.15">
       <c r="B36" s="22"/>
       <c r="C36" s="21"/>
       <c r="D36" s="21"/>
@@ -5623,7 +5634,7 @@
       <c r="AW36" s="21"/>
       <c r="AX36" s="23"/>
     </row>
-    <row r="37" spans="2:52" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:52" x14ac:dyDescent="0.15">
       <c r="B37" s="22"/>
       <c r="C37" s="21"/>
       <c r="D37" s="21"/>
@@ -5676,7 +5687,7 @@
       <c r="AY37" s="1"/>
       <c r="AZ37" s="1"/>
     </row>
-    <row r="38" spans="2:52" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:52" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B38" s="22"/>
       <c r="C38" s="21"/>
       <c r="D38" s="21"/>
@@ -5727,215 +5738,215 @@
       <c r="AW38" s="21"/>
       <c r="AX38" s="23"/>
     </row>
-    <row r="39" spans="2:52" x14ac:dyDescent="0.2">
-      <c r="B39" s="31"/>
-      <c r="C39" s="32"/>
-      <c r="D39" s="32"/>
-      <c r="E39" s="32"/>
-      <c r="F39" s="32"/>
-      <c r="G39" s="32"/>
-      <c r="H39" s="32"/>
-      <c r="I39" s="32"/>
-      <c r="J39" s="32"/>
-      <c r="K39" s="32"/>
-      <c r="L39" s="32"/>
-      <c r="M39" s="32"/>
-      <c r="N39" s="32"/>
-      <c r="O39" s="32"/>
-      <c r="P39" s="32"/>
-      <c r="Q39" s="32"/>
-      <c r="R39" s="32"/>
-      <c r="S39" s="32"/>
-      <c r="T39" s="32"/>
-      <c r="U39" s="32"/>
-      <c r="V39" s="32"/>
-      <c r="W39" s="32"/>
-      <c r="X39" s="32"/>
-      <c r="Y39" s="32"/>
-      <c r="Z39" s="32"/>
-      <c r="AA39" s="32"/>
-      <c r="AB39" s="32"/>
-      <c r="AC39" s="32"/>
-      <c r="AD39" s="32"/>
-      <c r="AE39" s="32"/>
-      <c r="AF39" s="32"/>
-      <c r="AG39" s="32"/>
-      <c r="AH39" s="32"/>
-      <c r="AI39" s="32"/>
-      <c r="AJ39" s="32"/>
-      <c r="AK39" s="32"/>
-      <c r="AL39" s="32"/>
-      <c r="AM39" s="32"/>
-      <c r="AN39" s="32"/>
-      <c r="AO39" s="32"/>
-      <c r="AP39" s="32"/>
-      <c r="AQ39" s="32"/>
-      <c r="AR39" s="32"/>
-      <c r="AS39" s="32"/>
-      <c r="AT39" s="32"/>
-      <c r="AU39" s="32"/>
-      <c r="AV39" s="32"/>
-      <c r="AW39" s="32"/>
-      <c r="AX39" s="33"/>
+    <row r="39" spans="2:52" x14ac:dyDescent="0.15">
+      <c r="B39" s="24"/>
+      <c r="C39" s="25"/>
+      <c r="D39" s="25"/>
+      <c r="E39" s="25"/>
+      <c r="F39" s="25"/>
+      <c r="G39" s="25"/>
+      <c r="H39" s="25"/>
+      <c r="I39" s="25"/>
+      <c r="J39" s="25"/>
+      <c r="K39" s="25"/>
+      <c r="L39" s="25"/>
+      <c r="M39" s="25"/>
+      <c r="N39" s="25"/>
+      <c r="O39" s="25"/>
+      <c r="P39" s="25"/>
+      <c r="Q39" s="25"/>
+      <c r="R39" s="25"/>
+      <c r="S39" s="25"/>
+      <c r="T39" s="25"/>
+      <c r="U39" s="25"/>
+      <c r="V39" s="25"/>
+      <c r="W39" s="25"/>
+      <c r="X39" s="25"/>
+      <c r="Y39" s="25"/>
+      <c r="Z39" s="25"/>
+      <c r="AA39" s="25"/>
+      <c r="AB39" s="25"/>
+      <c r="AC39" s="25"/>
+      <c r="AD39" s="25"/>
+      <c r="AE39" s="25"/>
+      <c r="AF39" s="25"/>
+      <c r="AG39" s="25"/>
+      <c r="AH39" s="25"/>
+      <c r="AI39" s="25"/>
+      <c r="AJ39" s="25"/>
+      <c r="AK39" s="25"/>
+      <c r="AL39" s="25"/>
+      <c r="AM39" s="25"/>
+      <c r="AN39" s="25"/>
+      <c r="AO39" s="25"/>
+      <c r="AP39" s="25"/>
+      <c r="AQ39" s="25"/>
+      <c r="AR39" s="25"/>
+      <c r="AS39" s="25"/>
+      <c r="AT39" s="25"/>
+      <c r="AU39" s="25"/>
+      <c r="AV39" s="25"/>
+      <c r="AW39" s="25"/>
+      <c r="AX39" s="26"/>
       <c r="AY39" s="1"/>
       <c r="AZ39" s="1"/>
     </row>
-    <row r="40" spans="2:52" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="24"/>
-      <c r="C40" s="24"/>
-      <c r="D40" s="24"/>
-      <c r="E40" s="24"/>
-      <c r="F40" s="24"/>
-      <c r="G40" s="24"/>
-      <c r="H40" s="24"/>
-      <c r="I40" s="24"/>
-      <c r="J40" s="24"/>
-      <c r="K40" s="24"/>
-      <c r="L40" s="24"/>
-      <c r="M40" s="24"/>
-      <c r="N40" s="24"/>
-      <c r="O40" s="24"/>
-      <c r="P40" s="24"/>
-      <c r="Q40" s="24"/>
-      <c r="R40" s="24"/>
-      <c r="S40" s="24"/>
-      <c r="T40" s="24"/>
-      <c r="U40" s="24"/>
-      <c r="V40" s="24"/>
-      <c r="W40" s="24"/>
-      <c r="X40" s="24"/>
-      <c r="Y40" s="24"/>
-      <c r="Z40" s="24"/>
-      <c r="AA40" s="24"/>
-      <c r="AB40" s="24"/>
-      <c r="AC40" s="24"/>
-      <c r="AD40" s="24"/>
-      <c r="AE40" s="24"/>
-      <c r="AF40" s="24"/>
-      <c r="AG40" s="24"/>
-      <c r="AH40" s="24"/>
-      <c r="AI40" s="24"/>
-      <c r="AJ40" s="24"/>
-      <c r="AK40" s="24"/>
-      <c r="AL40" s="24"/>
-      <c r="AM40" s="24"/>
-      <c r="AN40" s="24"/>
-      <c r="AO40" s="24"/>
-      <c r="AP40" s="24"/>
-      <c r="AQ40" s="24"/>
-      <c r="AR40" s="24"/>
-      <c r="AS40" s="24"/>
-      <c r="AT40" s="24"/>
-      <c r="AU40" s="24"/>
-      <c r="AV40" s="24"/>
-      <c r="AW40" s="24"/>
-      <c r="AX40" s="24"/>
+    <row r="40" spans="2:52" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B40" s="27"/>
+      <c r="C40" s="27"/>
+      <c r="D40" s="27"/>
+      <c r="E40" s="27"/>
+      <c r="F40" s="27"/>
+      <c r="G40" s="27"/>
+      <c r="H40" s="27"/>
+      <c r="I40" s="27"/>
+      <c r="J40" s="27"/>
+      <c r="K40" s="27"/>
+      <c r="L40" s="27"/>
+      <c r="M40" s="27"/>
+      <c r="N40" s="27"/>
+      <c r="O40" s="27"/>
+      <c r="P40" s="27"/>
+      <c r="Q40" s="27"/>
+      <c r="R40" s="27"/>
+      <c r="S40" s="27"/>
+      <c r="T40" s="27"/>
+      <c r="U40" s="27"/>
+      <c r="V40" s="27"/>
+      <c r="W40" s="27"/>
+      <c r="X40" s="27"/>
+      <c r="Y40" s="27"/>
+      <c r="Z40" s="27"/>
+      <c r="AA40" s="27"/>
+      <c r="AB40" s="27"/>
+      <c r="AC40" s="27"/>
+      <c r="AD40" s="27"/>
+      <c r="AE40" s="27"/>
+      <c r="AF40" s="27"/>
+      <c r="AG40" s="27"/>
+      <c r="AH40" s="27"/>
+      <c r="AI40" s="27"/>
+      <c r="AJ40" s="27"/>
+      <c r="AK40" s="27"/>
+      <c r="AL40" s="27"/>
+      <c r="AM40" s="27"/>
+      <c r="AN40" s="27"/>
+      <c r="AO40" s="27"/>
+      <c r="AP40" s="27"/>
+      <c r="AQ40" s="27"/>
+      <c r="AR40" s="27"/>
+      <c r="AS40" s="27"/>
+      <c r="AT40" s="27"/>
+      <c r="AU40" s="27"/>
+      <c r="AV40" s="27"/>
+      <c r="AW40" s="27"/>
+      <c r="AX40" s="27"/>
     </row>
-    <row r="41" spans="2:52" x14ac:dyDescent="0.2">
-      <c r="B41" s="25" t="s">
+    <row r="41" spans="2:52" x14ac:dyDescent="0.15">
+      <c r="B41" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="C41" s="26"/>
-      <c r="D41" s="26"/>
-      <c r="E41" s="26"/>
-      <c r="F41" s="26"/>
-      <c r="G41" s="26"/>
-      <c r="H41" s="26"/>
-      <c r="I41" s="26"/>
-      <c r="J41" s="26"/>
-      <c r="K41" s="26"/>
-      <c r="L41" s="26"/>
-      <c r="M41" s="26"/>
-      <c r="N41" s="26"/>
-      <c r="O41" s="26"/>
-      <c r="P41" s="26"/>
-      <c r="Q41" s="26"/>
-      <c r="R41" s="26"/>
-      <c r="S41" s="26"/>
-      <c r="T41" s="26"/>
-      <c r="U41" s="26"/>
-      <c r="V41" s="26"/>
-      <c r="W41" s="26"/>
-      <c r="X41" s="26"/>
-      <c r="Y41" s="26"/>
-      <c r="Z41" s="26"/>
-      <c r="AA41" s="26"/>
-      <c r="AB41" s="26"/>
-      <c r="AC41" s="26"/>
-      <c r="AD41" s="26"/>
-      <c r="AE41" s="26"/>
-      <c r="AF41" s="26"/>
-      <c r="AG41" s="26"/>
-      <c r="AH41" s="26"/>
-      <c r="AI41" s="26"/>
-      <c r="AJ41" s="26"/>
-      <c r="AK41" s="26"/>
-      <c r="AL41" s="26"/>
-      <c r="AM41" s="26"/>
-      <c r="AN41" s="26"/>
-      <c r="AO41" s="26"/>
-      <c r="AP41" s="26"/>
-      <c r="AQ41" s="26"/>
-      <c r="AR41" s="26"/>
-      <c r="AS41" s="26"/>
-      <c r="AT41" s="26"/>
-      <c r="AU41" s="26"/>
-      <c r="AV41" s="26"/>
-      <c r="AW41" s="26"/>
-      <c r="AX41" s="27"/>
+      <c r="C41" s="37"/>
+      <c r="D41" s="37"/>
+      <c r="E41" s="37"/>
+      <c r="F41" s="37"/>
+      <c r="G41" s="37"/>
+      <c r="H41" s="37"/>
+      <c r="I41" s="37"/>
+      <c r="J41" s="37"/>
+      <c r="K41" s="37"/>
+      <c r="L41" s="37"/>
+      <c r="M41" s="37"/>
+      <c r="N41" s="37"/>
+      <c r="O41" s="37"/>
+      <c r="P41" s="37"/>
+      <c r="Q41" s="37"/>
+      <c r="R41" s="37"/>
+      <c r="S41" s="37"/>
+      <c r="T41" s="37"/>
+      <c r="U41" s="37"/>
+      <c r="V41" s="37"/>
+      <c r="W41" s="37"/>
+      <c r="X41" s="37"/>
+      <c r="Y41" s="37"/>
+      <c r="Z41" s="37"/>
+      <c r="AA41" s="37"/>
+      <c r="AB41" s="37"/>
+      <c r="AC41" s="37"/>
+      <c r="AD41" s="37"/>
+      <c r="AE41" s="37"/>
+      <c r="AF41" s="37"/>
+      <c r="AG41" s="37"/>
+      <c r="AH41" s="37"/>
+      <c r="AI41" s="37"/>
+      <c r="AJ41" s="37"/>
+      <c r="AK41" s="37"/>
+      <c r="AL41" s="37"/>
+      <c r="AM41" s="37"/>
+      <c r="AN41" s="37"/>
+      <c r="AO41" s="37"/>
+      <c r="AP41" s="37"/>
+      <c r="AQ41" s="37"/>
+      <c r="AR41" s="37"/>
+      <c r="AS41" s="37"/>
+      <c r="AT41" s="37"/>
+      <c r="AU41" s="37"/>
+      <c r="AV41" s="37"/>
+      <c r="AW41" s="37"/>
+      <c r="AX41" s="38"/>
     </row>
-    <row r="42" spans="2:52" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="31"/>
-      <c r="C42" s="32"/>
-      <c r="D42" s="32"/>
-      <c r="E42" s="32"/>
-      <c r="F42" s="32"/>
-      <c r="G42" s="32"/>
-      <c r="H42" s="32"/>
-      <c r="I42" s="32"/>
-      <c r="J42" s="32"/>
-      <c r="K42" s="32"/>
-      <c r="L42" s="32"/>
-      <c r="M42" s="32"/>
-      <c r="N42" s="32"/>
-      <c r="O42" s="32"/>
-      <c r="P42" s="32"/>
-      <c r="Q42" s="32"/>
-      <c r="R42" s="32"/>
-      <c r="S42" s="32"/>
-      <c r="T42" s="32"/>
-      <c r="U42" s="32"/>
-      <c r="V42" s="32"/>
-      <c r="W42" s="32"/>
-      <c r="X42" s="32"/>
-      <c r="Y42" s="32"/>
-      <c r="Z42" s="32"/>
-      <c r="AA42" s="32"/>
-      <c r="AB42" s="32"/>
-      <c r="AC42" s="32"/>
-      <c r="AD42" s="32"/>
-      <c r="AE42" s="32"/>
-      <c r="AF42" s="32"/>
-      <c r="AG42" s="32"/>
-      <c r="AH42" s="32"/>
-      <c r="AI42" s="32"/>
-      <c r="AJ42" s="32"/>
-      <c r="AK42" s="32"/>
-      <c r="AL42" s="32"/>
-      <c r="AM42" s="32"/>
-      <c r="AN42" s="32"/>
-      <c r="AO42" s="32"/>
-      <c r="AP42" s="32"/>
-      <c r="AQ42" s="32"/>
-      <c r="AR42" s="32"/>
-      <c r="AS42" s="32"/>
-      <c r="AT42" s="32"/>
-      <c r="AU42" s="32"/>
-      <c r="AV42" s="32"/>
-      <c r="AW42" s="32"/>
-      <c r="AX42" s="33"/>
+    <row r="42" spans="2:52" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B42" s="24"/>
+      <c r="C42" s="25"/>
+      <c r="D42" s="25"/>
+      <c r="E42" s="25"/>
+      <c r="F42" s="25"/>
+      <c r="G42" s="25"/>
+      <c r="H42" s="25"/>
+      <c r="I42" s="25"/>
+      <c r="J42" s="25"/>
+      <c r="K42" s="25"/>
+      <c r="L42" s="25"/>
+      <c r="M42" s="25"/>
+      <c r="N42" s="25"/>
+      <c r="O42" s="25"/>
+      <c r="P42" s="25"/>
+      <c r="Q42" s="25"/>
+      <c r="R42" s="25"/>
+      <c r="S42" s="25"/>
+      <c r="T42" s="25"/>
+      <c r="U42" s="25"/>
+      <c r="V42" s="25"/>
+      <c r="W42" s="25"/>
+      <c r="X42" s="25"/>
+      <c r="Y42" s="25"/>
+      <c r="Z42" s="25"/>
+      <c r="AA42" s="25"/>
+      <c r="AB42" s="25"/>
+      <c r="AC42" s="25"/>
+      <c r="AD42" s="25"/>
+      <c r="AE42" s="25"/>
+      <c r="AF42" s="25"/>
+      <c r="AG42" s="25"/>
+      <c r="AH42" s="25"/>
+      <c r="AI42" s="25"/>
+      <c r="AJ42" s="25"/>
+      <c r="AK42" s="25"/>
+      <c r="AL42" s="25"/>
+      <c r="AM42" s="25"/>
+      <c r="AN42" s="25"/>
+      <c r="AO42" s="25"/>
+      <c r="AP42" s="25"/>
+      <c r="AQ42" s="25"/>
+      <c r="AR42" s="25"/>
+      <c r="AS42" s="25"/>
+      <c r="AT42" s="25"/>
+      <c r="AU42" s="25"/>
+      <c r="AV42" s="25"/>
+      <c r="AW42" s="25"/>
+      <c r="AX42" s="26"/>
     </row>
-    <row r="43" spans="2:52" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:52" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B43" s="17"/>
       <c r="C43" s="17"/>
       <c r="D43" s="17"/>
@@ -5986,12 +5997,12 @@
       <c r="AW43" s="17"/>
       <c r="AX43" s="17"/>
     </row>
-    <row r="44" spans="2:52" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:52" x14ac:dyDescent="0.15">
       <c r="B44" s="18" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="45" spans="2:52" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:52" x14ac:dyDescent="0.15">
       <c r="B45" s="11"/>
       <c r="C45" s="11" t="s">
         <v>0</v>
@@ -6044,12 +6055,12 @@
       <c r="AW45" s="11"/>
       <c r="AX45" s="11"/>
     </row>
-    <row r="46" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
       <c r="D46" s="4"/>
       <c r="E46" s="4" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="F46" s="4"/>
       <c r="G46" s="4"/>
@@ -6097,7 +6108,7 @@
       <c r="AW46" s="11"/>
       <c r="AX46" s="11"/>
     </row>
-    <row r="47" spans="2:52" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:52" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
       <c r="D47" s="4"/>
@@ -6148,23 +6159,23 @@
       <c r="AW47" s="11"/>
       <c r="AX47" s="11"/>
     </row>
-    <row r="48" spans="2:52" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:52" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B48" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="49" spans="2:50" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:50" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B49" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="50" spans="2:50" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:50" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B50" s="2"/>
     </row>
-    <row r="51" spans="2:50" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:50" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B51" s="2"/>
     </row>
-    <row r="52" spans="2:50" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:50" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B52" s="10" t="s">
         <v>16</v>
       </c>
@@ -6209,282 +6220,282 @@
       <c r="AO52" s="1"/>
       <c r="AP52" s="1"/>
     </row>
-    <row r="53" spans="2:50" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B53" s="36" t="s">
+    <row r="53" spans="2:50" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B53" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="C53" s="34"/>
-      <c r="D53" s="34"/>
-      <c r="E53" s="34"/>
-      <c r="F53" s="34"/>
-      <c r="G53" s="34"/>
-      <c r="H53" s="34"/>
-      <c r="I53" s="34"/>
-      <c r="J53" s="34"/>
-      <c r="K53" s="34"/>
-      <c r="L53" s="34"/>
-      <c r="M53" s="34"/>
-      <c r="N53" s="34"/>
-      <c r="O53" s="34"/>
-      <c r="P53" s="34"/>
-      <c r="Q53" s="34"/>
-      <c r="R53" s="34"/>
-      <c r="S53" s="34"/>
-      <c r="T53" s="34"/>
-      <c r="U53" s="34"/>
-      <c r="V53" s="34"/>
-      <c r="W53" s="34"/>
-      <c r="X53" s="34"/>
-      <c r="Y53" s="34"/>
-      <c r="Z53" s="34" t="s">
+      <c r="C53" s="42"/>
+      <c r="D53" s="42"/>
+      <c r="E53" s="42"/>
+      <c r="F53" s="42"/>
+      <c r="G53" s="42"/>
+      <c r="H53" s="42"/>
+      <c r="I53" s="42"/>
+      <c r="J53" s="42"/>
+      <c r="K53" s="42"/>
+      <c r="L53" s="42"/>
+      <c r="M53" s="42"/>
+      <c r="N53" s="42"/>
+      <c r="O53" s="42"/>
+      <c r="P53" s="42"/>
+      <c r="Q53" s="42"/>
+      <c r="R53" s="42"/>
+      <c r="S53" s="42"/>
+      <c r="T53" s="42"/>
+      <c r="U53" s="42"/>
+      <c r="V53" s="42"/>
+      <c r="W53" s="42"/>
+      <c r="X53" s="42"/>
+      <c r="Y53" s="42"/>
+      <c r="Z53" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="AA53" s="34"/>
-      <c r="AB53" s="34"/>
-      <c r="AC53" s="34"/>
-      <c r="AD53" s="34"/>
-      <c r="AE53" s="34"/>
-      <c r="AF53" s="34"/>
-      <c r="AG53" s="34"/>
-      <c r="AH53" s="34"/>
-      <c r="AI53" s="34"/>
-      <c r="AJ53" s="34"/>
-      <c r="AK53" s="34"/>
-      <c r="AL53" s="34"/>
-      <c r="AM53" s="34"/>
-      <c r="AN53" s="34"/>
-      <c r="AO53" s="34"/>
-      <c r="AP53" s="34"/>
-      <c r="AQ53" s="34"/>
-      <c r="AR53" s="34"/>
-      <c r="AS53" s="34"/>
-      <c r="AT53" s="34"/>
-      <c r="AU53" s="34"/>
-      <c r="AV53" s="34"/>
-      <c r="AW53" s="34"/>
-      <c r="AX53" s="35"/>
+      <c r="AA53" s="42"/>
+      <c r="AB53" s="42"/>
+      <c r="AC53" s="42"/>
+      <c r="AD53" s="42"/>
+      <c r="AE53" s="42"/>
+      <c r="AF53" s="42"/>
+      <c r="AG53" s="42"/>
+      <c r="AH53" s="42"/>
+      <c r="AI53" s="42"/>
+      <c r="AJ53" s="42"/>
+      <c r="AK53" s="42"/>
+      <c r="AL53" s="42"/>
+      <c r="AM53" s="42"/>
+      <c r="AN53" s="42"/>
+      <c r="AO53" s="42"/>
+      <c r="AP53" s="42"/>
+      <c r="AQ53" s="42"/>
+      <c r="AR53" s="42"/>
+      <c r="AS53" s="42"/>
+      <c r="AT53" s="42"/>
+      <c r="AU53" s="42"/>
+      <c r="AV53" s="42"/>
+      <c r="AW53" s="42"/>
+      <c r="AX53" s="43"/>
     </row>
-    <row r="54" spans="2:50" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B54" s="37" t="s">
+    <row r="54" spans="2:50" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B54" s="45" t="s">
+        <v>33</v>
+      </c>
+      <c r="C54" s="46"/>
+      <c r="D54" s="46"/>
+      <c r="E54" s="46"/>
+      <c r="F54" s="46"/>
+      <c r="G54" s="46"/>
+      <c r="H54" s="46"/>
+      <c r="I54" s="46"/>
+      <c r="J54" s="46"/>
+      <c r="K54" s="46"/>
+      <c r="L54" s="46"/>
+      <c r="M54" s="46"/>
+      <c r="N54" s="46"/>
+      <c r="O54" s="46"/>
+      <c r="P54" s="46"/>
+      <c r="Q54" s="46"/>
+      <c r="R54" s="46"/>
+      <c r="S54" s="46"/>
+      <c r="T54" s="46"/>
+      <c r="U54" s="46"/>
+      <c r="V54" s="46"/>
+      <c r="W54" s="46"/>
+      <c r="X54" s="46"/>
+      <c r="Y54" s="47"/>
+      <c r="Z54" s="52" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA54" s="52"/>
+      <c r="AB54" s="52"/>
+      <c r="AC54" s="52"/>
+      <c r="AD54" s="52"/>
+      <c r="AE54" s="52"/>
+      <c r="AF54" s="52"/>
+      <c r="AG54" s="52"/>
+      <c r="AH54" s="52"/>
+      <c r="AI54" s="52"/>
+      <c r="AJ54" s="52"/>
+      <c r="AK54" s="52"/>
+      <c r="AL54" s="52"/>
+      <c r="AM54" s="52"/>
+      <c r="AN54" s="52"/>
+      <c r="AO54" s="52"/>
+      <c r="AP54" s="52"/>
+      <c r="AQ54" s="52"/>
+      <c r="AR54" s="52"/>
+      <c r="AS54" s="52"/>
+      <c r="AT54" s="52"/>
+      <c r="AU54" s="52"/>
+      <c r="AV54" s="52"/>
+      <c r="AW54" s="52"/>
+      <c r="AX54" s="53"/>
+    </row>
+    <row r="55" spans="2:50" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B55" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="C54" s="38"/>
-      <c r="D54" s="38"/>
-      <c r="E54" s="38"/>
-      <c r="F54" s="38"/>
-      <c r="G54" s="38"/>
-      <c r="H54" s="38"/>
-      <c r="I54" s="38"/>
-      <c r="J54" s="38"/>
-      <c r="K54" s="38"/>
-      <c r="L54" s="38"/>
-      <c r="M54" s="38"/>
-      <c r="N54" s="38"/>
-      <c r="O54" s="38"/>
-      <c r="P54" s="38"/>
-      <c r="Q54" s="38"/>
-      <c r="R54" s="38"/>
-      <c r="S54" s="38"/>
-      <c r="T54" s="38"/>
-      <c r="U54" s="38"/>
-      <c r="V54" s="38"/>
-      <c r="W54" s="38"/>
-      <c r="X54" s="38"/>
-      <c r="Y54" s="39"/>
-      <c r="Z54" s="44" t="s">
+      <c r="C55" s="49"/>
+      <c r="D55" s="49"/>
+      <c r="E55" s="49"/>
+      <c r="F55" s="49"/>
+      <c r="G55" s="49"/>
+      <c r="H55" s="49"/>
+      <c r="I55" s="49"/>
+      <c r="J55" s="49"/>
+      <c r="K55" s="49"/>
+      <c r="L55" s="49"/>
+      <c r="M55" s="49"/>
+      <c r="N55" s="49"/>
+      <c r="O55" s="49"/>
+      <c r="P55" s="49"/>
+      <c r="Q55" s="49"/>
+      <c r="R55" s="49"/>
+      <c r="S55" s="49"/>
+      <c r="T55" s="49"/>
+      <c r="U55" s="49"/>
+      <c r="V55" s="49"/>
+      <c r="W55" s="49"/>
+      <c r="X55" s="49"/>
+      <c r="Y55" s="50"/>
+      <c r="Z55" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="AA54" s="44"/>
-      <c r="AB54" s="44"/>
-      <c r="AC54" s="44"/>
-      <c r="AD54" s="44"/>
-      <c r="AE54" s="44"/>
-      <c r="AF54" s="44"/>
-      <c r="AG54" s="44"/>
-      <c r="AH54" s="44"/>
-      <c r="AI54" s="44"/>
-      <c r="AJ54" s="44"/>
-      <c r="AK54" s="44"/>
-      <c r="AL54" s="44"/>
-      <c r="AM54" s="44"/>
-      <c r="AN54" s="44"/>
-      <c r="AO54" s="44"/>
-      <c r="AP54" s="44"/>
-      <c r="AQ54" s="44"/>
-      <c r="AR54" s="44"/>
-      <c r="AS54" s="44"/>
-      <c r="AT54" s="44"/>
-      <c r="AU54" s="44"/>
-      <c r="AV54" s="44"/>
-      <c r="AW54" s="44"/>
-      <c r="AX54" s="45"/>
+      <c r="AA55" s="52"/>
+      <c r="AB55" s="52"/>
+      <c r="AC55" s="52"/>
+      <c r="AD55" s="52"/>
+      <c r="AE55" s="52"/>
+      <c r="AF55" s="52"/>
+      <c r="AG55" s="52"/>
+      <c r="AH55" s="52"/>
+      <c r="AI55" s="52"/>
+      <c r="AJ55" s="52"/>
+      <c r="AK55" s="52"/>
+      <c r="AL55" s="52"/>
+      <c r="AM55" s="52"/>
+      <c r="AN55" s="52"/>
+      <c r="AO55" s="52"/>
+      <c r="AP55" s="52"/>
+      <c r="AQ55" s="52"/>
+      <c r="AR55" s="52"/>
+      <c r="AS55" s="52"/>
+      <c r="AT55" s="52"/>
+      <c r="AU55" s="52"/>
+      <c r="AV55" s="52"/>
+      <c r="AW55" s="52"/>
+      <c r="AX55" s="53"/>
     </row>
-    <row r="55" spans="2:50" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B55" s="40" t="s">
+    <row r="56" spans="2:50" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B56" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="C55" s="41"/>
-      <c r="D55" s="41"/>
-      <c r="E55" s="41"/>
-      <c r="F55" s="41"/>
-      <c r="G55" s="41"/>
-      <c r="H55" s="41"/>
-      <c r="I55" s="41"/>
-      <c r="J55" s="41"/>
-      <c r="K55" s="41"/>
-      <c r="L55" s="41"/>
-      <c r="M55" s="41"/>
-      <c r="N55" s="41"/>
-      <c r="O55" s="41"/>
-      <c r="P55" s="41"/>
-      <c r="Q55" s="41"/>
-      <c r="R55" s="41"/>
-      <c r="S55" s="41"/>
-      <c r="T55" s="41"/>
-      <c r="U55" s="41"/>
-      <c r="V55" s="41"/>
-      <c r="W55" s="41"/>
-      <c r="X55" s="41"/>
-      <c r="Y55" s="42"/>
-      <c r="Z55" s="43" t="s">
-        <v>29</v>
+      <c r="C56" s="49"/>
+      <c r="D56" s="49"/>
+      <c r="E56" s="49"/>
+      <c r="F56" s="49"/>
+      <c r="G56" s="49"/>
+      <c r="H56" s="49"/>
+      <c r="I56" s="49"/>
+      <c r="J56" s="49"/>
+      <c r="K56" s="49"/>
+      <c r="L56" s="49"/>
+      <c r="M56" s="49"/>
+      <c r="N56" s="49"/>
+      <c r="O56" s="49"/>
+      <c r="P56" s="49"/>
+      <c r="Q56" s="49"/>
+      <c r="R56" s="49"/>
+      <c r="S56" s="49"/>
+      <c r="T56" s="49"/>
+      <c r="U56" s="49"/>
+      <c r="V56" s="49"/>
+      <c r="W56" s="49"/>
+      <c r="X56" s="49"/>
+      <c r="Y56" s="50"/>
+      <c r="Z56" s="51" t="s">
+        <v>38</v>
       </c>
-      <c r="AA55" s="44"/>
-      <c r="AB55" s="44"/>
-      <c r="AC55" s="44"/>
-      <c r="AD55" s="44"/>
-      <c r="AE55" s="44"/>
-      <c r="AF55" s="44"/>
-      <c r="AG55" s="44"/>
-      <c r="AH55" s="44"/>
-      <c r="AI55" s="44"/>
-      <c r="AJ55" s="44"/>
-      <c r="AK55" s="44"/>
-      <c r="AL55" s="44"/>
-      <c r="AM55" s="44"/>
-      <c r="AN55" s="44"/>
-      <c r="AO55" s="44"/>
-      <c r="AP55" s="44"/>
-      <c r="AQ55" s="44"/>
-      <c r="AR55" s="44"/>
-      <c r="AS55" s="44"/>
-      <c r="AT55" s="44"/>
-      <c r="AU55" s="44"/>
-      <c r="AV55" s="44"/>
-      <c r="AW55" s="44"/>
-      <c r="AX55" s="45"/>
+      <c r="AA56" s="52"/>
+      <c r="AB56" s="52"/>
+      <c r="AC56" s="52"/>
+      <c r="AD56" s="52"/>
+      <c r="AE56" s="52"/>
+      <c r="AF56" s="52"/>
+      <c r="AG56" s="52"/>
+      <c r="AH56" s="52"/>
+      <c r="AI56" s="52"/>
+      <c r="AJ56" s="52"/>
+      <c r="AK56" s="52"/>
+      <c r="AL56" s="52"/>
+      <c r="AM56" s="52"/>
+      <c r="AN56" s="52"/>
+      <c r="AO56" s="52"/>
+      <c r="AP56" s="52"/>
+      <c r="AQ56" s="52"/>
+      <c r="AR56" s="52"/>
+      <c r="AS56" s="52"/>
+      <c r="AT56" s="52"/>
+      <c r="AU56" s="52"/>
+      <c r="AV56" s="52"/>
+      <c r="AW56" s="52"/>
+      <c r="AX56" s="53"/>
     </row>
-    <row r="56" spans="2:50" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B56" s="40" t="s">
+    <row r="57" spans="2:50" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B57" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="C56" s="41"/>
-      <c r="D56" s="41"/>
-      <c r="E56" s="41"/>
-      <c r="F56" s="41"/>
-      <c r="G56" s="41"/>
-      <c r="H56" s="41"/>
-      <c r="I56" s="41"/>
-      <c r="J56" s="41"/>
-      <c r="K56" s="41"/>
-      <c r="L56" s="41"/>
-      <c r="M56" s="41"/>
-      <c r="N56" s="41"/>
-      <c r="O56" s="41"/>
-      <c r="P56" s="41"/>
-      <c r="Q56" s="41"/>
-      <c r="R56" s="41"/>
-      <c r="S56" s="41"/>
-      <c r="T56" s="41"/>
-      <c r="U56" s="41"/>
-      <c r="V56" s="41"/>
-      <c r="W56" s="41"/>
-      <c r="X56" s="41"/>
-      <c r="Y56" s="42"/>
-      <c r="Z56" s="43" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA56" s="44"/>
-      <c r="AB56" s="44"/>
-      <c r="AC56" s="44"/>
-      <c r="AD56" s="44"/>
-      <c r="AE56" s="44"/>
-      <c r="AF56" s="44"/>
-      <c r="AG56" s="44"/>
-      <c r="AH56" s="44"/>
-      <c r="AI56" s="44"/>
-      <c r="AJ56" s="44"/>
-      <c r="AK56" s="44"/>
-      <c r="AL56" s="44"/>
-      <c r="AM56" s="44"/>
-      <c r="AN56" s="44"/>
-      <c r="AO56" s="44"/>
-      <c r="AP56" s="44"/>
-      <c r="AQ56" s="44"/>
-      <c r="AR56" s="44"/>
-      <c r="AS56" s="44"/>
-      <c r="AT56" s="44"/>
-      <c r="AU56" s="44"/>
-      <c r="AV56" s="44"/>
-      <c r="AW56" s="44"/>
-      <c r="AX56" s="45"/>
-    </row>
-    <row r="57" spans="2:50" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="46" t="s">
+      <c r="C57" s="55"/>
+      <c r="D57" s="55"/>
+      <c r="E57" s="55"/>
+      <c r="F57" s="55"/>
+      <c r="G57" s="55"/>
+      <c r="H57" s="55"/>
+      <c r="I57" s="55"/>
+      <c r="J57" s="55"/>
+      <c r="K57" s="55"/>
+      <c r="L57" s="55"/>
+      <c r="M57" s="55"/>
+      <c r="N57" s="55"/>
+      <c r="O57" s="55"/>
+      <c r="P57" s="55"/>
+      <c r="Q57" s="55"/>
+      <c r="R57" s="55"/>
+      <c r="S57" s="55"/>
+      <c r="T57" s="55"/>
+      <c r="U57" s="55"/>
+      <c r="V57" s="55"/>
+      <c r="W57" s="55"/>
+      <c r="X57" s="55"/>
+      <c r="Y57" s="56"/>
+      <c r="Z57" s="57" t="s">
         <v>37</v>
       </c>
-      <c r="C57" s="47"/>
-      <c r="D57" s="47"/>
-      <c r="E57" s="47"/>
-      <c r="F57" s="47"/>
-      <c r="G57" s="47"/>
-      <c r="H57" s="47"/>
-      <c r="I57" s="47"/>
-      <c r="J57" s="47"/>
-      <c r="K57" s="47"/>
-      <c r="L57" s="47"/>
-      <c r="M57" s="47"/>
-      <c r="N57" s="47"/>
-      <c r="O57" s="47"/>
-      <c r="P57" s="47"/>
-      <c r="Q57" s="47"/>
-      <c r="R57" s="47"/>
-      <c r="S57" s="47"/>
-      <c r="T57" s="47"/>
-      <c r="U57" s="47"/>
-      <c r="V57" s="47"/>
-      <c r="W57" s="47"/>
-      <c r="X57" s="47"/>
-      <c r="Y57" s="48"/>
-      <c r="Z57" s="49" t="s">
-        <v>38</v>
-      </c>
-      <c r="AA57" s="50"/>
-      <c r="AB57" s="50"/>
-      <c r="AC57" s="50"/>
-      <c r="AD57" s="50"/>
-      <c r="AE57" s="50"/>
-      <c r="AF57" s="50"/>
-      <c r="AG57" s="50"/>
-      <c r="AH57" s="50"/>
-      <c r="AI57" s="50"/>
-      <c r="AJ57" s="50"/>
-      <c r="AK57" s="50"/>
-      <c r="AL57" s="50"/>
-      <c r="AM57" s="50"/>
-      <c r="AN57" s="50"/>
-      <c r="AO57" s="50"/>
-      <c r="AP57" s="50"/>
-      <c r="AQ57" s="50"/>
-      <c r="AR57" s="50"/>
-      <c r="AS57" s="50"/>
-      <c r="AT57" s="50"/>
-      <c r="AU57" s="50"/>
-      <c r="AV57" s="50"/>
-      <c r="AW57" s="50"/>
-      <c r="AX57" s="51"/>
+      <c r="AA57" s="58"/>
+      <c r="AB57" s="58"/>
+      <c r="AC57" s="58"/>
+      <c r="AD57" s="58"/>
+      <c r="AE57" s="58"/>
+      <c r="AF57" s="58"/>
+      <c r="AG57" s="58"/>
+      <c r="AH57" s="58"/>
+      <c r="AI57" s="58"/>
+      <c r="AJ57" s="58"/>
+      <c r="AK57" s="58"/>
+      <c r="AL57" s="58"/>
+      <c r="AM57" s="58"/>
+      <c r="AN57" s="58"/>
+      <c r="AO57" s="58"/>
+      <c r="AP57" s="58"/>
+      <c r="AQ57" s="58"/>
+      <c r="AR57" s="58"/>
+      <c r="AS57" s="58"/>
+      <c r="AT57" s="58"/>
+      <c r="AU57" s="58"/>
+      <c r="AV57" s="58"/>
+      <c r="AW57" s="58"/>
+      <c r="AX57" s="59"/>
     </row>
-    <row r="58" spans="2:50" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:50" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B58" s="10" t="s">
         <v>19</v>
       </c>
@@ -6537,111 +6548,111 @@
       <c r="AW58" s="9"/>
       <c r="AX58" s="9"/>
     </row>
-    <row r="59" spans="2:50" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B59" s="28" t="s">
+    <row r="59" spans="2:50" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B59" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="C59" s="29"/>
-      <c r="D59" s="29"/>
-      <c r="E59" s="29"/>
-      <c r="F59" s="29"/>
-      <c r="G59" s="29"/>
-      <c r="H59" s="29"/>
-      <c r="I59" s="29"/>
-      <c r="J59" s="29"/>
-      <c r="K59" s="29"/>
-      <c r="L59" s="29"/>
-      <c r="M59" s="29"/>
-      <c r="N59" s="29"/>
-      <c r="O59" s="29"/>
-      <c r="P59" s="29"/>
-      <c r="Q59" s="29"/>
-      <c r="R59" s="29"/>
-      <c r="S59" s="29"/>
-      <c r="T59" s="29"/>
-      <c r="U59" s="29"/>
-      <c r="V59" s="29"/>
-      <c r="W59" s="29"/>
-      <c r="X59" s="29"/>
-      <c r="Y59" s="29"/>
-      <c r="Z59" s="29"/>
-      <c r="AA59" s="29"/>
-      <c r="AB59" s="29"/>
-      <c r="AC59" s="29"/>
-      <c r="AD59" s="29"/>
-      <c r="AE59" s="29"/>
-      <c r="AF59" s="29"/>
-      <c r="AG59" s="29"/>
-      <c r="AH59" s="29"/>
-      <c r="AI59" s="29"/>
-      <c r="AJ59" s="29"/>
-      <c r="AK59" s="29"/>
-      <c r="AL59" s="29"/>
-      <c r="AM59" s="29"/>
-      <c r="AN59" s="29"/>
-      <c r="AO59" s="29"/>
-      <c r="AP59" s="29"/>
-      <c r="AQ59" s="29"/>
-      <c r="AR59" s="29"/>
-      <c r="AS59" s="29"/>
-      <c r="AT59" s="29"/>
-      <c r="AU59" s="29"/>
-      <c r="AV59" s="29"/>
-      <c r="AW59" s="29"/>
-      <c r="AX59" s="30"/>
+      <c r="C59" s="40"/>
+      <c r="D59" s="40"/>
+      <c r="E59" s="40"/>
+      <c r="F59" s="40"/>
+      <c r="G59" s="40"/>
+      <c r="H59" s="40"/>
+      <c r="I59" s="40"/>
+      <c r="J59" s="40"/>
+      <c r="K59" s="40"/>
+      <c r="L59" s="40"/>
+      <c r="M59" s="40"/>
+      <c r="N59" s="40"/>
+      <c r="O59" s="40"/>
+      <c r="P59" s="40"/>
+      <c r="Q59" s="40"/>
+      <c r="R59" s="40"/>
+      <c r="S59" s="40"/>
+      <c r="T59" s="40"/>
+      <c r="U59" s="40"/>
+      <c r="V59" s="40"/>
+      <c r="W59" s="40"/>
+      <c r="X59" s="40"/>
+      <c r="Y59" s="40"/>
+      <c r="Z59" s="40"/>
+      <c r="AA59" s="40"/>
+      <c r="AB59" s="40"/>
+      <c r="AC59" s="40"/>
+      <c r="AD59" s="40"/>
+      <c r="AE59" s="40"/>
+      <c r="AF59" s="40"/>
+      <c r="AG59" s="40"/>
+      <c r="AH59" s="40"/>
+      <c r="AI59" s="40"/>
+      <c r="AJ59" s="40"/>
+      <c r="AK59" s="40"/>
+      <c r="AL59" s="40"/>
+      <c r="AM59" s="40"/>
+      <c r="AN59" s="40"/>
+      <c r="AO59" s="40"/>
+      <c r="AP59" s="40"/>
+      <c r="AQ59" s="40"/>
+      <c r="AR59" s="40"/>
+      <c r="AS59" s="40"/>
+      <c r="AT59" s="40"/>
+      <c r="AU59" s="40"/>
+      <c r="AV59" s="40"/>
+      <c r="AW59" s="40"/>
+      <c r="AX59" s="41"/>
     </row>
-    <row r="60" spans="2:50" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B60" s="28"/>
-      <c r="C60" s="29"/>
-      <c r="D60" s="29"/>
-      <c r="E60" s="29"/>
-      <c r="F60" s="29"/>
-      <c r="G60" s="29"/>
-      <c r="H60" s="29"/>
-      <c r="I60" s="29"/>
-      <c r="J60" s="29"/>
-      <c r="K60" s="29"/>
-      <c r="L60" s="29"/>
-      <c r="M60" s="29"/>
-      <c r="N60" s="29"/>
-      <c r="O60" s="29"/>
-      <c r="P60" s="29"/>
-      <c r="Q60" s="29"/>
-      <c r="R60" s="29"/>
-      <c r="S60" s="29"/>
-      <c r="T60" s="29"/>
-      <c r="U60" s="29"/>
-      <c r="V60" s="29"/>
-      <c r="W60" s="29"/>
-      <c r="X60" s="29"/>
-      <c r="Y60" s="29"/>
-      <c r="Z60" s="29"/>
-      <c r="AA60" s="29"/>
-      <c r="AB60" s="29"/>
-      <c r="AC60" s="29"/>
-      <c r="AD60" s="29"/>
-      <c r="AE60" s="29"/>
-      <c r="AF60" s="29"/>
-      <c r="AG60" s="29"/>
-      <c r="AH60" s="29"/>
-      <c r="AI60" s="29"/>
-      <c r="AJ60" s="29"/>
-      <c r="AK60" s="29"/>
-      <c r="AL60" s="29"/>
-      <c r="AM60" s="29"/>
-      <c r="AN60" s="29"/>
-      <c r="AO60" s="29"/>
-      <c r="AP60" s="29"/>
-      <c r="AQ60" s="29"/>
-      <c r="AR60" s="29"/>
-      <c r="AS60" s="29"/>
-      <c r="AT60" s="29"/>
-      <c r="AU60" s="29"/>
-      <c r="AV60" s="29"/>
-      <c r="AW60" s="29"/>
-      <c r="AX60" s="30"/>
+    <row r="60" spans="2:50" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B60" s="39"/>
+      <c r="C60" s="40"/>
+      <c r="D60" s="40"/>
+      <c r="E60" s="40"/>
+      <c r="F60" s="40"/>
+      <c r="G60" s="40"/>
+      <c r="H60" s="40"/>
+      <c r="I60" s="40"/>
+      <c r="J60" s="40"/>
+      <c r="K60" s="40"/>
+      <c r="L60" s="40"/>
+      <c r="M60" s="40"/>
+      <c r="N60" s="40"/>
+      <c r="O60" s="40"/>
+      <c r="P60" s="40"/>
+      <c r="Q60" s="40"/>
+      <c r="R60" s="40"/>
+      <c r="S60" s="40"/>
+      <c r="T60" s="40"/>
+      <c r="U60" s="40"/>
+      <c r="V60" s="40"/>
+      <c r="W60" s="40"/>
+      <c r="X60" s="40"/>
+      <c r="Y60" s="40"/>
+      <c r="Z60" s="40"/>
+      <c r="AA60" s="40"/>
+      <c r="AB60" s="40"/>
+      <c r="AC60" s="40"/>
+      <c r="AD60" s="40"/>
+      <c r="AE60" s="40"/>
+      <c r="AF60" s="40"/>
+      <c r="AG60" s="40"/>
+      <c r="AH60" s="40"/>
+      <c r="AI60" s="40"/>
+      <c r="AJ60" s="40"/>
+      <c r="AK60" s="40"/>
+      <c r="AL60" s="40"/>
+      <c r="AM60" s="40"/>
+      <c r="AN60" s="40"/>
+      <c r="AO60" s="40"/>
+      <c r="AP60" s="40"/>
+      <c r="AQ60" s="40"/>
+      <c r="AR60" s="40"/>
+      <c r="AS60" s="40"/>
+      <c r="AT60" s="40"/>
+      <c r="AU60" s="40"/>
+      <c r="AV60" s="40"/>
+      <c r="AW60" s="40"/>
+      <c r="AX60" s="41"/>
     </row>
-    <row r="61" spans="2:50" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:50" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AD61" s="2"/>
       <c r="AE61" s="6"/>
       <c r="AF61" s="6"/>
@@ -6655,7 +6666,7 @@
       <c r="AN61" s="1"/>
       <c r="AO61" s="1"/>
     </row>
-    <row r="62" spans="2:50" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:50" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B62" s="4"/>
       <c r="C62" s="4"/>
       <c r="D62" s="4"/>
@@ -6697,63 +6708,88 @@
       <c r="AO62" s="4"/>
       <c r="AP62" s="4"/>
     </row>
-    <row r="63" spans="2:50" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="64" spans="2:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="66" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="67" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="68" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="69" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="70" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="71" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="72" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="73" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="74" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="75" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="76" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="77" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="78" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="80" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="83" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="84" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="90" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="91" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="92" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="93" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="107" ht="10.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="108" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="111" ht="10.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="112" ht="10.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="113" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="114" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="115" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="117" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="122" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="124" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="125" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="126" ht="9" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="129" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="138" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="140" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="141" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="143" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="144" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="152" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="153" ht="9" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="154" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="156" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="157" ht="5.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="158" ht="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="159" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="161" ht="10.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="162" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="165" ht="10.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="166" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="169" ht="10.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="170" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="63" spans="2:50" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="64" spans="2:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="66" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="67" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="68" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="69" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="70" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="71" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="72" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="73" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="74" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="75" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="76" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="77" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="78" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="80" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="83" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="84" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="90" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="91" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="92" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="93" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="107" ht="10.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="108" ht="9.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="111" ht="10.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="112" ht="10.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="113" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="114" ht="9.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="115" ht="9.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="117" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="122" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="124" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="125" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="126" ht="9" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="129" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="138" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="140" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="141" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="143" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="144" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="152" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="153" ht="9" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="154" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="156" ht="18.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="157" ht="5.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="158" ht="22.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="159" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="161" ht="10.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="162" ht="9.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="165" ht="10.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="166" ht="9.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="169" ht="10.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="170" ht="9.75" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="41">
+    <mergeCell ref="B40:AX40"/>
+    <mergeCell ref="B41:AX41"/>
+    <mergeCell ref="B59:AX59"/>
+    <mergeCell ref="B42:AX42"/>
+    <mergeCell ref="B60:AX60"/>
+    <mergeCell ref="Z53:AX53"/>
+    <mergeCell ref="B53:Y53"/>
+    <mergeCell ref="B54:Y54"/>
+    <mergeCell ref="B55:Y55"/>
+    <mergeCell ref="Z55:AX55"/>
+    <mergeCell ref="Z56:AX56"/>
+    <mergeCell ref="B56:Y56"/>
+    <mergeCell ref="B57:Y57"/>
+    <mergeCell ref="Z57:AX57"/>
+    <mergeCell ref="Z54:AX54"/>
+    <mergeCell ref="B23:AX23"/>
+    <mergeCell ref="B26:AX26"/>
+    <mergeCell ref="U3:Y3"/>
+    <mergeCell ref="B18:AX18"/>
+    <mergeCell ref="AK3:AO3"/>
+    <mergeCell ref="B7:P9"/>
+    <mergeCell ref="B10:J10"/>
+    <mergeCell ref="B16:AX16"/>
+    <mergeCell ref="B19:AX19"/>
+    <mergeCell ref="B4:AX5"/>
     <mergeCell ref="B39:AX39"/>
     <mergeCell ref="B31:AX31"/>
     <mergeCell ref="B33:AX33"/>
@@ -6770,31 +6806,6 @@
     <mergeCell ref="B30:AX30"/>
     <mergeCell ref="B28:AX28"/>
     <mergeCell ref="B22:AX22"/>
-    <mergeCell ref="B23:AX23"/>
-    <mergeCell ref="B26:AX26"/>
-    <mergeCell ref="U3:Y3"/>
-    <mergeCell ref="B18:AX18"/>
-    <mergeCell ref="AK3:AO3"/>
-    <mergeCell ref="B7:P9"/>
-    <mergeCell ref="B10:J10"/>
-    <mergeCell ref="B16:AX16"/>
-    <mergeCell ref="B19:AX19"/>
-    <mergeCell ref="B4:AX5"/>
-    <mergeCell ref="B40:AX40"/>
-    <mergeCell ref="B41:AX41"/>
-    <mergeCell ref="B59:AX59"/>
-    <mergeCell ref="B42:AX42"/>
-    <mergeCell ref="B60:AX60"/>
-    <mergeCell ref="Z53:AX53"/>
-    <mergeCell ref="B53:Y53"/>
-    <mergeCell ref="B54:Y54"/>
-    <mergeCell ref="B55:Y55"/>
-    <mergeCell ref="Z55:AX55"/>
-    <mergeCell ref="Z56:AX56"/>
-    <mergeCell ref="B56:Y56"/>
-    <mergeCell ref="B57:Y57"/>
-    <mergeCell ref="Z57:AX57"/>
-    <mergeCell ref="Z54:AX54"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
